--- a/FPGA_Developments/COM_Module_v1_5/References/NIOS_RMAP_Config_Map.xlsx
+++ b/FPGA_Developments/COM_Module_v1_5/References/NIOS_RMAP_Config_Map.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Development\GitHub\SimuCam_Development\FPGA_Developments\COM_Module_v1_5\References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Dev\SimuCam_Development\FPGA_Developments\COM_Module_v1_5\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F152E-03D2-4BC8-8FD2-A837462F53F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVS RMAP Config Registers" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Config Reg VHDL RMAP RD Case" sheetId="15" r:id="rId4"/>
     <sheet name="Config Reg VHDL RMAP WR Case" sheetId="16" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,22 +463,22 @@
     <t>0x40</t>
   </si>
   <si>
-    <t>avalon_mm_spacewire_o.readdata</t>
-  </si>
-  <si>
     <t>read_address_i</t>
   </si>
   <si>
-    <t>avalon_mm_spacewire_i.writedata</t>
+    <t>write_address_i</t>
   </si>
   <si>
-    <t>write_address_i</t>
+    <t>avalon_mm_rmap_i.writedata</t>
+  </si>
+  <si>
+    <t>avalon_mm_rmap_o.readdata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,6 +735,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,44 +789,17 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,15 +808,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,104 +1089,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AH126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O19" sqref="O19"/>
+      <selection pane="topRight" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="6.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="6.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>36</v>
@@ -1284,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
@@ -1385,42 +1386,42 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
       <c r="AE6" s="15">
         <v>0</v>
       </c>
@@ -1434,42 +1435,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="34" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="14" t="s">
         <v>98</v>
       </c>
@@ -1483,46 +1484,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>132</v>
       </c>
@@ -1562,7 +1563,7 @@
       <c r="AG10" s="31"/>
       <c r="AH10" s="32"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>36</v>
@@ -1661,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1826,7 @@
       <c r="AG13" s="31"/>
       <c r="AH13" s="32"/>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
@@ -1865,69 +1866,69 @@
       <c r="N14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="41"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="29"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>132</v>
       </c>
@@ -1967,7 +1968,7 @@
       <c r="AG17" s="31"/>
       <c r="AH17" s="32"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
         <v>36</v>
@@ -2066,7 +2067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
@@ -2274,28 +2275,28 @@
       <c r="N21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="36" t="s">
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AF21" s="37"/>
+      <c r="AF21" s="25"/>
       <c r="AG21" s="14" t="s">
         <v>105</v>
       </c>
@@ -2303,46 +2304,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>132</v>
       </c>
@@ -2382,7 +2383,7 @@
       <c r="AG24" s="31"/>
       <c r="AH24" s="32"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
         <v>36</v>
@@ -2481,7 +2482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>12</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>10</v>
       </c>
@@ -2784,46 +2785,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>132</v>
       </c>
@@ -2863,7 +2864,7 @@
       <c r="AG31" s="31"/>
       <c r="AH31" s="32"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="13" t="s">
         <v>36</v>
@@ -2962,7 +2963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>12</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>11</v>
       </c>
@@ -3102,85 +3103,85 @@
       <c r="AG34" s="31"/>
       <c r="AH34" s="32"/>
     </row>
-    <row r="35" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="40"/>
-      <c r="AH35" s="41"/>
-    </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="29"/>
+    </row>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="29"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>132</v>
       </c>
@@ -3220,7 +3221,7 @@
       <c r="AG38" s="31"/>
       <c r="AH38" s="32"/>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
         <v>36</v>
@@ -3319,7 +3320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>12</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>11</v>
       </c>
@@ -3471,28 +3472,28 @@
       <c r="AG41" s="31"/>
       <c r="AH41" s="32"/>
     </row>
-    <row r="42" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="29"/>
       <c r="S42" s="14" t="s">
         <v>41</v>
       </c>
@@ -3505,63 +3506,63 @@
       <c r="V42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="36" t="s">
+      <c r="W42" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="36" t="s">
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="37"/>
-    </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="24"/>
+      <c r="AH42" s="25"/>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-    </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>132</v>
       </c>
@@ -3601,7 +3602,7 @@
       <c r="AG45" s="31"/>
       <c r="AH45" s="32"/>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
       <c r="C46" s="13" t="s">
         <v>36</v>
@@ -3700,7 +3701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>12</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>11</v>
       </c>
@@ -3840,85 +3841,85 @@
       <c r="AG48" s="31"/>
       <c r="AH48" s="32"/>
     </row>
-    <row r="49" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="40"/>
-      <c r="AC49" s="40"/>
-      <c r="AD49" s="40"/>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="40"/>
-      <c r="AG49" s="40"/>
-      <c r="AH49" s="41"/>
-    </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="29"/>
+    </row>
+    <row r="51" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-    </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>132</v>
       </c>
@@ -3958,7 +3959,7 @@
       <c r="AG52" s="31"/>
       <c r="AH52" s="32"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
         <v>36</v>
@@ -4057,7 +4058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>12</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>11</v>
       </c>
@@ -4209,28 +4210,28 @@
       <c r="AG55" s="31"/>
       <c r="AH55" s="32"/>
     </row>
-    <row r="56" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="41"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="29"/>
       <c r="S56" s="14" t="s">
         <v>41</v>
       </c>
@@ -4243,63 +4244,63 @@
       <c r="V56" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W56" s="36" t="s">
+      <c r="W56" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="36" t="s">
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="AD56" s="38"/>
-      <c r="AE56" s="38"/>
-      <c r="AF56" s="38"/>
-      <c r="AG56" s="38"/>
-      <c r="AH56" s="37"/>
-    </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="24"/>
+      <c r="AH56" s="25"/>
+    </row>
+    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
-      <c r="AE58" s="29"/>
-      <c r="AF58" s="29"/>
-      <c r="AG58" s="29"/>
-      <c r="AH58" s="29"/>
-    </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="26"/>
+      <c r="AE58" s="26"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="26"/>
+      <c r="AH58" s="26"/>
+    </row>
+    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>132</v>
       </c>
@@ -4339,7 +4340,7 @@
       <c r="AG59" s="31"/>
       <c r="AH59" s="32"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
       <c r="C60" s="13" t="s">
         <v>36</v>
@@ -4438,7 +4439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>12</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>11</v>
       </c>
@@ -4578,85 +4579,85 @@
       <c r="AG62" s="31"/>
       <c r="AH62" s="32"/>
     </row>
-    <row r="63" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="40"/>
-      <c r="AB63" s="40"/>
-      <c r="AC63" s="40"/>
-      <c r="AD63" s="40"/>
-      <c r="AE63" s="40"/>
-      <c r="AF63" s="40"/>
-      <c r="AG63" s="40"/>
-      <c r="AH63" s="41"/>
-    </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
+      <c r="AD63" s="28"/>
+      <c r="AE63" s="28"/>
+      <c r="AF63" s="28"/>
+      <c r="AG63" s="28"/>
+      <c r="AH63" s="29"/>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="29"/>
-      <c r="AD65" s="29"/>
-      <c r="AE65" s="29"/>
-      <c r="AF65" s="29"/>
-      <c r="AG65" s="29"/>
-      <c r="AH65" s="29"/>
-    </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="26"/>
+      <c r="V65" s="26"/>
+      <c r="W65" s="26"/>
+      <c r="X65" s="26"/>
+      <c r="Y65" s="26"/>
+      <c r="Z65" s="26"/>
+      <c r="AA65" s="26"/>
+      <c r="AB65" s="26"/>
+      <c r="AC65" s="26"/>
+      <c r="AD65" s="26"/>
+      <c r="AE65" s="26"/>
+      <c r="AF65" s="26"/>
+      <c r="AG65" s="26"/>
+      <c r="AH65" s="26"/>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>132</v>
       </c>
@@ -4696,7 +4697,7 @@
       <c r="AG66" s="31"/>
       <c r="AH66" s="32"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B67" s="12"/>
       <c r="C67" s="13" t="s">
         <v>36</v>
@@ -4795,7 +4796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>11</v>
       </c>
@@ -4947,28 +4948,28 @@
       <c r="AG69" s="31"/>
       <c r="AH69" s="32"/>
     </row>
-    <row r="70" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="41"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="29"/>
       <c r="S70" s="14" t="s">
         <v>41</v>
       </c>
@@ -4981,63 +4982,63 @@
       <c r="V70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W70" s="36" t="s">
+      <c r="W70" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
-      <c r="AB70" s="37"/>
-      <c r="AC70" s="36" t="s">
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="38"/>
-      <c r="AF70" s="38"/>
-      <c r="AG70" s="38"/>
-      <c r="AH70" s="37"/>
-    </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="25"/>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="29"/>
-      <c r="AC72" s="29"/>
-      <c r="AD72" s="29"/>
-      <c r="AE72" s="29"/>
-      <c r="AF72" s="29"/>
-      <c r="AG72" s="29"/>
-      <c r="AH72" s="29"/>
-    </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="26"/>
+      <c r="V72" s="26"/>
+      <c r="W72" s="26"/>
+      <c r="X72" s="26"/>
+      <c r="Y72" s="26"/>
+      <c r="Z72" s="26"/>
+      <c r="AA72" s="26"/>
+      <c r="AB72" s="26"/>
+      <c r="AC72" s="26"/>
+      <c r="AD72" s="26"/>
+      <c r="AE72" s="26"/>
+      <c r="AF72" s="26"/>
+      <c r="AG72" s="26"/>
+      <c r="AH72" s="26"/>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>132</v>
       </c>
@@ -5077,7 +5078,7 @@
       <c r="AG73" s="31"/>
       <c r="AH73" s="32"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B74" s="12"/>
       <c r="C74" s="13" t="s">
         <v>36</v>
@@ -5176,7 +5177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>11</v>
       </c>
@@ -5316,85 +5317,85 @@
       <c r="AG76" s="31"/>
       <c r="AH76" s="32"/>
     </row>
-    <row r="77" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="40"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="40"/>
-      <c r="AA77" s="40"/>
-      <c r="AB77" s="40"/>
-      <c r="AC77" s="40"/>
-      <c r="AD77" s="40"/>
-      <c r="AE77" s="40"/>
-      <c r="AF77" s="40"/>
-      <c r="AG77" s="40"/>
-      <c r="AH77" s="41"/>
-    </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="28"/>
+      <c r="AD77" s="28"/>
+      <c r="AE77" s="28"/>
+      <c r="AF77" s="28"/>
+      <c r="AG77" s="28"/>
+      <c r="AH77" s="29"/>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="29"/>
-      <c r="U79" s="29"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="29"/>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
-      <c r="AC79" s="29"/>
-      <c r="AD79" s="29"/>
-      <c r="AE79" s="29"/>
-      <c r="AF79" s="29"/>
-      <c r="AG79" s="29"/>
-      <c r="AH79" s="29"/>
-    </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="26"/>
+      <c r="U79" s="26"/>
+      <c r="V79" s="26"/>
+      <c r="W79" s="26"/>
+      <c r="X79" s="26"/>
+      <c r="Y79" s="26"/>
+      <c r="Z79" s="26"/>
+      <c r="AA79" s="26"/>
+      <c r="AB79" s="26"/>
+      <c r="AC79" s="26"/>
+      <c r="AD79" s="26"/>
+      <c r="AE79" s="26"/>
+      <c r="AF79" s="26"/>
+      <c r="AG79" s="26"/>
+      <c r="AH79" s="26"/>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>132</v>
       </c>
@@ -5434,7 +5435,7 @@
       <c r="AG80" s="31"/>
       <c r="AH80" s="32"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B81" s="12"/>
       <c r="C81" s="13" t="s">
         <v>36</v>
@@ -5533,7 +5534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>12</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>11</v>
       </c>
@@ -5685,28 +5686,28 @@
       <c r="AG83" s="31"/>
       <c r="AH83" s="32"/>
     </row>
-    <row r="84" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="41"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="29"/>
       <c r="S84" s="14" t="s">
         <v>41</v>
       </c>
@@ -5719,63 +5720,63 @@
       <c r="V84" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W84" s="36" t="s">
+      <c r="W84" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="38"/>
-      <c r="AA84" s="38"/>
-      <c r="AB84" s="37"/>
-      <c r="AC84" s="36" t="s">
+      <c r="X84" s="24"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="24"/>
+      <c r="AA84" s="24"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="AD84" s="38"/>
-      <c r="AE84" s="38"/>
-      <c r="AF84" s="38"/>
-      <c r="AG84" s="38"/>
-      <c r="AH84" s="37"/>
-    </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AD84" s="24"/>
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="25"/>
+    </row>
+    <row r="86" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="29"/>
-      <c r="V86" s="29"/>
-      <c r="W86" s="29"/>
-      <c r="X86" s="29"/>
-      <c r="Y86" s="29"/>
-      <c r="Z86" s="29"/>
-      <c r="AA86" s="29"/>
-      <c r="AB86" s="29"/>
-      <c r="AC86" s="29"/>
-      <c r="AD86" s="29"/>
-      <c r="AE86" s="29"/>
-      <c r="AF86" s="29"/>
-      <c r="AG86" s="29"/>
-      <c r="AH86" s="29"/>
-    </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="26"/>
+      <c r="U86" s="26"/>
+      <c r="V86" s="26"/>
+      <c r="W86" s="26"/>
+      <c r="X86" s="26"/>
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="26"/>
+      <c r="AA86" s="26"/>
+      <c r="AB86" s="26"/>
+      <c r="AC86" s="26"/>
+      <c r="AD86" s="26"/>
+      <c r="AE86" s="26"/>
+      <c r="AF86" s="26"/>
+      <c r="AG86" s="26"/>
+      <c r="AH86" s="26"/>
+    </row>
+    <row r="87" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>132</v>
       </c>
@@ -5815,7 +5816,7 @@
       <c r="AG87" s="31"/>
       <c r="AH87" s="32"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
       <c r="C88" s="13" t="s">
         <v>36</v>
@@ -5914,7 +5915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>11</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>10</v>
       </c>
@@ -6186,12 +6187,12 @@
       <c r="Z91" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AA91" s="36" t="s">
+      <c r="AA91" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="AB91" s="38"/>
-      <c r="AC91" s="38"/>
-      <c r="AD91" s="37"/>
+      <c r="AB91" s="24"/>
+      <c r="AC91" s="24"/>
+      <c r="AD91" s="25"/>
       <c r="AE91" s="14" t="s">
         <v>41</v>
       </c>
@@ -6205,46 +6206,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="29"/>
-      <c r="V93" s="29"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="29"/>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="29"/>
-      <c r="AA93" s="29"/>
-      <c r="AB93" s="29"/>
-      <c r="AC93" s="29"/>
-      <c r="AD93" s="29"/>
-      <c r="AE93" s="29"/>
-      <c r="AF93" s="29"/>
-      <c r="AG93" s="29"/>
-      <c r="AH93" s="29"/>
-    </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="26"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="26"/>
+      <c r="AA93" s="26"/>
+      <c r="AB93" s="26"/>
+      <c r="AC93" s="26"/>
+      <c r="AD93" s="26"/>
+      <c r="AE93" s="26"/>
+      <c r="AF93" s="26"/>
+      <c r="AG93" s="26"/>
+      <c r="AH93" s="26"/>
+    </row>
+    <row r="94" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>132</v>
       </c>
@@ -6284,7 +6285,7 @@
       <c r="AG94" s="31"/>
       <c r="AH94" s="32"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B95" s="12"/>
       <c r="C95" s="13" t="s">
         <v>36</v>
@@ -6383,7 +6384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>12</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>11</v>
       </c>
@@ -6583,7 +6584,7 @@
       </c>
       <c r="AH97" s="32"/>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>10</v>
       </c>
@@ -6677,51 +6678,51 @@
       <c r="AF98" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AG98" s="36" t="s">
+      <c r="AG98" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="AH98" s="37"/>
-    </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AH98" s="25"/>
+    </row>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="29"/>
-      <c r="V100" s="29"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="29"/>
-      <c r="Y100" s="29"/>
-      <c r="Z100" s="29"/>
-      <c r="AA100" s="29"/>
-      <c r="AB100" s="29"/>
-      <c r="AC100" s="29"/>
-      <c r="AD100" s="29"/>
-      <c r="AE100" s="29"/>
-      <c r="AF100" s="29"/>
-      <c r="AG100" s="29"/>
-      <c r="AH100" s="29"/>
-    </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26"/>
+      <c r="T100" s="26"/>
+      <c r="U100" s="26"/>
+      <c r="V100" s="26"/>
+      <c r="W100" s="26"/>
+      <c r="X100" s="26"/>
+      <c r="Y100" s="26"/>
+      <c r="Z100" s="26"/>
+      <c r="AA100" s="26"/>
+      <c r="AB100" s="26"/>
+      <c r="AC100" s="26"/>
+      <c r="AD100" s="26"/>
+      <c r="AE100" s="26"/>
+      <c r="AF100" s="26"/>
+      <c r="AG100" s="26"/>
+      <c r="AH100" s="26"/>
+    </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>132</v>
       </c>
@@ -6761,7 +6762,7 @@
       <c r="AG101" s="31"/>
       <c r="AH101" s="32"/>
     </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B102" s="12"/>
       <c r="C102" s="13" t="s">
         <v>36</v>
@@ -6860,7 +6861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>12</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>11</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
         <v>10</v>
       </c>
@@ -7163,46 +7164,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="29"/>
-      <c r="V107" s="29"/>
-      <c r="W107" s="29"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="29"/>
-      <c r="AB107" s="29"/>
-      <c r="AC107" s="29"/>
-      <c r="AD107" s="29"/>
-      <c r="AE107" s="29"/>
-      <c r="AF107" s="29"/>
-      <c r="AG107" s="29"/>
-      <c r="AH107" s="29"/>
-    </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="26"/>
+      <c r="V107" s="26"/>
+      <c r="W107" s="26"/>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="26"/>
+      <c r="AA107" s="26"/>
+      <c r="AB107" s="26"/>
+      <c r="AC107" s="26"/>
+      <c r="AD107" s="26"/>
+      <c r="AE107" s="26"/>
+      <c r="AF107" s="26"/>
+      <c r="AG107" s="26"/>
+      <c r="AH107" s="26"/>
+    </row>
+    <row r="108" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>132</v>
       </c>
@@ -7242,7 +7243,7 @@
       <c r="AG108" s="31"/>
       <c r="AH108" s="32"/>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B109" s="12"/>
       <c r="C109" s="13" t="s">
         <v>36</v>
@@ -7341,7 +7342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>12</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>11</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>10</v>
       </c>
@@ -7644,86 +7645,86 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B114" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="C114" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="33"/>
-      <c r="L114" s="33"/>
-      <c r="M114" s="33"/>
-      <c r="N114" s="33"/>
-      <c r="O114" s="33"/>
-      <c r="P114" s="33"/>
-      <c r="Q114" s="33"/>
-      <c r="R114" s="33"/>
-      <c r="S114" s="33"/>
-      <c r="T114" s="33"/>
-      <c r="U114" s="33"/>
-      <c r="V114" s="33"/>
-      <c r="W114" s="33"/>
-      <c r="X114" s="33"/>
-      <c r="Y114" s="33"/>
-      <c r="Z114" s="33"/>
-      <c r="AA114" s="33"/>
-      <c r="AB114" s="33"/>
-      <c r="AC114" s="33"/>
-      <c r="AD114" s="33"/>
-      <c r="AE114" s="33"/>
-      <c r="AF114" s="33"/>
-      <c r="AG114" s="33"/>
-      <c r="AH114" s="33"/>
-    </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="41"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="41"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="41"/>
+      <c r="S114" s="41"/>
+      <c r="T114" s="41"/>
+      <c r="U114" s="41"/>
+      <c r="V114" s="41"/>
+      <c r="W114" s="41"/>
+      <c r="X114" s="41"/>
+      <c r="Y114" s="41"/>
+      <c r="Z114" s="41"/>
+      <c r="AA114" s="41"/>
+      <c r="AB114" s="41"/>
+      <c r="AC114" s="41"/>
+      <c r="AD114" s="41"/>
+      <c r="AE114" s="41"/>
+      <c r="AF114" s="41"/>
+      <c r="AG114" s="41"/>
+      <c r="AH114" s="41"/>
+    </row>
+    <row r="115" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B115" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="23" t="str">
+      <c r="C115" s="35" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C108,2))+1,2))</f>
         <v>0x50</v>
       </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="24"/>
-      <c r="N115" s="24"/>
-      <c r="O115" s="24"/>
-      <c r="P115" s="24"/>
-      <c r="Q115" s="24"/>
-      <c r="R115" s="24"/>
-      <c r="S115" s="24"/>
-      <c r="T115" s="24"/>
-      <c r="U115" s="24"/>
-      <c r="V115" s="24"/>
-      <c r="W115" s="24"/>
-      <c r="X115" s="24"/>
-      <c r="Y115" s="24"/>
-      <c r="Z115" s="24"/>
-      <c r="AA115" s="24"/>
-      <c r="AB115" s="24"/>
-      <c r="AC115" s="24"/>
-      <c r="AD115" s="24"/>
-      <c r="AE115" s="24"/>
-      <c r="AF115" s="24"/>
-      <c r="AG115" s="24"/>
-      <c r="AH115" s="25"/>
-    </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="36"/>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="36"/>
+      <c r="S115" s="36"/>
+      <c r="T115" s="36"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="36"/>
+      <c r="W115" s="36"/>
+      <c r="X115" s="36"/>
+      <c r="Y115" s="36"/>
+      <c r="Z115" s="36"/>
+      <c r="AA115" s="36"/>
+      <c r="AB115" s="36"/>
+      <c r="AC115" s="36"/>
+      <c r="AD115" s="36"/>
+      <c r="AE115" s="36"/>
+      <c r="AF115" s="36"/>
+      <c r="AG115" s="36"/>
+      <c r="AH115" s="37"/>
+    </row>
+    <row r="116" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B116" s="18"/>
       <c r="C116" s="19" t="s">
         <v>36</v>
@@ -7822,7 +7823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B117" s="18" t="s">
         <v>12</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B118" s="18" t="s">
         <v>11</v>
       </c>
@@ -8017,12 +8018,12 @@
       <c r="AF118" s="21">
         <v>0</v>
       </c>
-      <c r="AG118" s="23" t="s">
+      <c r="AG118" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AH118" s="25"/>
-    </row>
-    <row r="119" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AH118" s="37"/>
+    </row>
+    <row r="119" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
         <v>10</v>
       </c>
@@ -8116,91 +8117,91 @@
       <c r="AF119" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AG119" s="26" t="s">
+      <c r="AG119" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="AH119" s="28"/>
-    </row>
-    <row r="121" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AH119" s="40"/>
+    </row>
+    <row r="121" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C121" s="33" t="s">
+      <c r="C121" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="33"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="33"/>
-      <c r="L121" s="33"/>
-      <c r="M121" s="33"/>
-      <c r="N121" s="33"/>
-      <c r="O121" s="33"/>
-      <c r="P121" s="33"/>
-      <c r="Q121" s="33"/>
-      <c r="R121" s="33"/>
-      <c r="S121" s="33"/>
-      <c r="T121" s="33"/>
-      <c r="U121" s="33"/>
-      <c r="V121" s="33"/>
-      <c r="W121" s="33"/>
-      <c r="X121" s="33"/>
-      <c r="Y121" s="33"/>
-      <c r="Z121" s="33"/>
-      <c r="AA121" s="33"/>
-      <c r="AB121" s="33"/>
-      <c r="AC121" s="33"/>
-      <c r="AD121" s="33"/>
-      <c r="AE121" s="33"/>
-      <c r="AF121" s="33"/>
-      <c r="AG121" s="33"/>
-      <c r="AH121" s="33"/>
-    </row>
-    <row r="122" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="41"/>
+      <c r="N121" s="41"/>
+      <c r="O121" s="41"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="41"/>
+      <c r="R121" s="41"/>
+      <c r="S121" s="41"/>
+      <c r="T121" s="41"/>
+      <c r="U121" s="41"/>
+      <c r="V121" s="41"/>
+      <c r="W121" s="41"/>
+      <c r="X121" s="41"/>
+      <c r="Y121" s="41"/>
+      <c r="Z121" s="41"/>
+      <c r="AA121" s="41"/>
+      <c r="AB121" s="41"/>
+      <c r="AC121" s="41"/>
+      <c r="AD121" s="41"/>
+      <c r="AE121" s="41"/>
+      <c r="AF121" s="41"/>
+      <c r="AG121" s="41"/>
+      <c r="AH121" s="41"/>
+    </row>
+    <row r="122" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B122" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C122" s="23" t="str">
+      <c r="C122" s="35" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C115,2))+1,2))</f>
         <v>0x51</v>
       </c>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="24"/>
-      <c r="O122" s="24"/>
-      <c r="P122" s="24"/>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="24"/>
-      <c r="S122" s="24"/>
-      <c r="T122" s="24"/>
-      <c r="U122" s="24"/>
-      <c r="V122" s="24"/>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-      <c r="Z122" s="24"/>
-      <c r="AA122" s="24"/>
-      <c r="AB122" s="24"/>
-      <c r="AC122" s="24"/>
-      <c r="AD122" s="24"/>
-      <c r="AE122" s="24"/>
-      <c r="AF122" s="24"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="25"/>
-    </row>
-    <row r="123" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="36"/>
+      <c r="S122" s="36"/>
+      <c r="T122" s="36"/>
+      <c r="U122" s="36"/>
+      <c r="V122" s="36"/>
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="36"/>
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="36"/>
+      <c r="AE122" s="36"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="36"/>
+      <c r="AH122" s="37"/>
+    </row>
+    <row r="123" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="19" t="s">
         <v>36</v>
@@ -8299,7 +8300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B124" s="18" t="s">
         <v>12</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B125" s="18" t="s">
         <v>11</v>
       </c>
@@ -8488,14 +8489,14 @@
       <c r="AD125" s="21">
         <v>0</v>
       </c>
-      <c r="AE125" s="23" t="s">
+      <c r="AE125" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AF125" s="24"/>
-      <c r="AG125" s="24"/>
-      <c r="AH125" s="25"/>
-    </row>
-    <row r="126" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AF125" s="36"/>
+      <c r="AG125" s="36"/>
+      <c r="AH125" s="37"/>
+    </row>
+    <row r="126" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B126" s="18" t="s">
         <v>10</v>
       </c>
@@ -8583,41 +8584,59 @@
       <c r="AD126" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AE126" s="26" t="s">
+      <c r="AE126" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="AF126" s="27"/>
-      <c r="AG126" s="27"/>
-      <c r="AH126" s="28"/>
+      <c r="AF126" s="39"/>
+      <c r="AG126" s="39"/>
+      <c r="AH126" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="W84:AB84"/>
-    <mergeCell ref="C79:AH79"/>
-    <mergeCell ref="C72:AH72"/>
-    <mergeCell ref="C84:R84"/>
-    <mergeCell ref="C70:R70"/>
-    <mergeCell ref="W70:AB70"/>
-    <mergeCell ref="AC84:AH84"/>
-    <mergeCell ref="C73:AH73"/>
-    <mergeCell ref="C80:AH80"/>
-    <mergeCell ref="AC70:AH70"/>
-    <mergeCell ref="C76:AH76"/>
-    <mergeCell ref="C77:AH77"/>
-    <mergeCell ref="C83:R83"/>
-    <mergeCell ref="W83:AB83"/>
-    <mergeCell ref="AC83:AH83"/>
-    <mergeCell ref="C63:AH63"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="W69:AB69"/>
-    <mergeCell ref="AC69:AH69"/>
-    <mergeCell ref="W42:AB42"/>
-    <mergeCell ref="W56:AB56"/>
-    <mergeCell ref="C55:R55"/>
-    <mergeCell ref="W55:AB55"/>
-    <mergeCell ref="AC55:AH55"/>
-    <mergeCell ref="AC56:AH56"/>
-    <mergeCell ref="C62:AH62"/>
+    <mergeCell ref="C122:AH122"/>
+    <mergeCell ref="AE125:AH125"/>
+    <mergeCell ref="AE126:AH126"/>
+    <mergeCell ref="C107:AH107"/>
+    <mergeCell ref="C108:AH108"/>
+    <mergeCell ref="C114:AH114"/>
+    <mergeCell ref="C115:AH115"/>
+    <mergeCell ref="AG118:AH118"/>
+    <mergeCell ref="AG119:AH119"/>
+    <mergeCell ref="C121:AH121"/>
+    <mergeCell ref="C10:AH10"/>
+    <mergeCell ref="C2:AH2"/>
+    <mergeCell ref="O7:AD7"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="O6:AD6"/>
+    <mergeCell ref="C9:AH9"/>
+    <mergeCell ref="C3:AH3"/>
+    <mergeCell ref="C37:AH37"/>
+    <mergeCell ref="C38:AH38"/>
+    <mergeCell ref="C34:AH34"/>
+    <mergeCell ref="C30:AH30"/>
+    <mergeCell ref="C31:AH31"/>
+    <mergeCell ref="C100:AH100"/>
+    <mergeCell ref="C101:AH101"/>
+    <mergeCell ref="C93:AH93"/>
+    <mergeCell ref="C94:AH94"/>
+    <mergeCell ref="C86:AH86"/>
+    <mergeCell ref="C87:AH87"/>
+    <mergeCell ref="AG98:AH98"/>
+    <mergeCell ref="AG97:AH97"/>
+    <mergeCell ref="AA91:AD91"/>
+    <mergeCell ref="AA90:AD90"/>
+    <mergeCell ref="O14:AH14"/>
+    <mergeCell ref="O13:AH13"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="C35:AH35"/>
+    <mergeCell ref="O20:AD20"/>
+    <mergeCell ref="O21:AD21"/>
+    <mergeCell ref="C23:AH23"/>
+    <mergeCell ref="C24:AH24"/>
+    <mergeCell ref="C16:AH16"/>
+    <mergeCell ref="C17:AH17"/>
     <mergeCell ref="C41:R41"/>
     <mergeCell ref="W41:AB41"/>
     <mergeCell ref="AC41:AH41"/>
@@ -8634,50 +8653,32 @@
     <mergeCell ref="C52:AH52"/>
     <mergeCell ref="C58:AH58"/>
     <mergeCell ref="C56:R56"/>
-    <mergeCell ref="O14:AH14"/>
-    <mergeCell ref="O13:AH13"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="C35:AH35"/>
-    <mergeCell ref="O20:AD20"/>
-    <mergeCell ref="O21:AD21"/>
-    <mergeCell ref="C23:AH23"/>
-    <mergeCell ref="C24:AH24"/>
-    <mergeCell ref="C16:AH16"/>
-    <mergeCell ref="C17:AH17"/>
-    <mergeCell ref="C100:AH100"/>
-    <mergeCell ref="C101:AH101"/>
-    <mergeCell ref="C93:AH93"/>
-    <mergeCell ref="C94:AH94"/>
-    <mergeCell ref="C86:AH86"/>
-    <mergeCell ref="C87:AH87"/>
-    <mergeCell ref="AG98:AH98"/>
-    <mergeCell ref="AG97:AH97"/>
-    <mergeCell ref="AA91:AD91"/>
-    <mergeCell ref="AA90:AD90"/>
-    <mergeCell ref="C37:AH37"/>
-    <mergeCell ref="C38:AH38"/>
-    <mergeCell ref="C34:AH34"/>
-    <mergeCell ref="C30:AH30"/>
-    <mergeCell ref="C31:AH31"/>
-    <mergeCell ref="C10:AH10"/>
-    <mergeCell ref="C2:AH2"/>
-    <mergeCell ref="O7:AD7"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="O6:AD6"/>
-    <mergeCell ref="C9:AH9"/>
-    <mergeCell ref="C3:AH3"/>
-    <mergeCell ref="C122:AH122"/>
-    <mergeCell ref="AE125:AH125"/>
-    <mergeCell ref="AE126:AH126"/>
-    <mergeCell ref="C107:AH107"/>
-    <mergeCell ref="C108:AH108"/>
-    <mergeCell ref="C114:AH114"/>
-    <mergeCell ref="C115:AH115"/>
-    <mergeCell ref="AG118:AH118"/>
-    <mergeCell ref="AG119:AH119"/>
-    <mergeCell ref="C121:AH121"/>
+    <mergeCell ref="C63:AH63"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="W69:AB69"/>
+    <mergeCell ref="AC69:AH69"/>
+    <mergeCell ref="W42:AB42"/>
+    <mergeCell ref="W56:AB56"/>
+    <mergeCell ref="C55:R55"/>
+    <mergeCell ref="W55:AB55"/>
+    <mergeCell ref="AC55:AH55"/>
+    <mergeCell ref="AC56:AH56"/>
+    <mergeCell ref="C62:AH62"/>
+    <mergeCell ref="W84:AB84"/>
+    <mergeCell ref="C79:AH79"/>
+    <mergeCell ref="C72:AH72"/>
+    <mergeCell ref="C84:R84"/>
+    <mergeCell ref="C70:R70"/>
+    <mergeCell ref="W70:AB70"/>
+    <mergeCell ref="AC84:AH84"/>
+    <mergeCell ref="C73:AH73"/>
+    <mergeCell ref="C80:AH80"/>
+    <mergeCell ref="AC70:AH70"/>
+    <mergeCell ref="C76:AH76"/>
+    <mergeCell ref="C77:AH77"/>
+    <mergeCell ref="C83:R83"/>
+    <mergeCell ref="W83:AB83"/>
+    <mergeCell ref="AC83:AH83"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8685,7 +8686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8693,23 +8694,23 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
@@ -8744,16 +8745,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="str">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="45" t="str">
         <f>'AVS RMAP Config Registers'!C3</f>
         <v>0x40</v>
       </c>
-      <c r="C3" s="42" t="str">
+      <c r="C3" s="45" t="str">
         <f>CONCATENATE("x""",RIGHT(B3,LEN(B3)-2),"""")</f>
         <v>x"40"</v>
       </c>
-      <c r="D3" s="47" t="str">
+      <c r="D3" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C2</f>
         <v>ccd_seq_1_config</v>
       </c>
@@ -8786,10 +8787,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="47"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AG7</f>
         <v>tri_level_clock_control</v>
@@ -8821,10 +8822,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="47"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AF7</f>
         <v>image_clock_direction_control</v>
@@ -8856,10 +8857,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="47"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AE7</f>
         <v>register_clock_direction_control</v>
@@ -8891,10 +8892,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="47"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="8" t="str">
         <f>'AVS RMAP Config Registers'!O7</f>
         <v>image_clock_transfer_count_control</v>
@@ -8927,10 +8928,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="47"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C7</f>
         <v>register_clock_transfer_count_control</v>
@@ -8963,16 +8964,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="str">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="43" t="str">
         <f>'AVS RMAP Config Registers'!C10</f>
         <v>0x41</v>
       </c>
-      <c r="C9" s="45" t="str">
+      <c r="C9" s="43" t="str">
         <f>CONCATENATE("x""",RIGHT(B9,LEN(B9)-2),"""")</f>
         <v>x"41"</v>
       </c>
-      <c r="D9" s="47" t="str">
+      <c r="D9" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C9</f>
         <v>ccd_seq_2_config</v>
       </c>
@@ -9008,10 +9009,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
@@ -9042,16 +9043,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="str">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="45" t="str">
         <f>'AVS RMAP Config Registers'!C17</f>
         <v>0x42</v>
       </c>
-      <c r="C11" s="42" t="str">
+      <c r="C11" s="45" t="str">
         <f>CONCATENATE("x""",RIGHT(B11,LEN(B11)-2),"""")</f>
         <v>x"42"</v>
       </c>
-      <c r="D11" s="44" t="str">
+      <c r="D11" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C16</f>
         <v>spw_packet_1_config</v>
       </c>
@@ -9084,10 +9085,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AG21</f>
         <v>digitise_control</v>
@@ -9119,10 +9120,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AE21</f>
         <v>ccd_port_data_transmission_selection_control</v>
@@ -9155,10 +9156,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="8" t="str">
         <f>'AVS RMAP Config Registers'!O21</f>
         <v>packet_size_control</v>
@@ -9191,10 +9192,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="8" t="s">
         <v>41</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="str">
         <f>'AVS RMAP Config Registers'!C24</f>
         <v>0x43</v>
@@ -9268,7 +9269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="str">
         <f>'AVS RMAP Config Registers'!C31</f>
         <v>0x44</v>
@@ -9313,16 +9314,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="str">
+    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="43" t="str">
         <f>'AVS RMAP Config Registers'!C38</f>
         <v>0x45</v>
       </c>
-      <c r="C18" s="45" t="str">
+      <c r="C18" s="43" t="str">
         <f>CONCATENATE("x""",RIGHT(B18,LEN(B18)-2),"""")</f>
         <v>x"45"</v>
       </c>
-      <c r="D18" s="47" t="str">
+      <c r="D18" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C37</f>
         <v>CCD_1_windowing_2_config</v>
       </c>
@@ -9358,10 +9359,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="8" t="str">
         <f>'AVS RMAP Config Registers'!W42</f>
         <v>window_height_ccd1</v>
@@ -9394,10 +9395,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="8" t="s">
         <v>41</v>
       </c>
@@ -9428,10 +9429,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C42</f>
         <v>window_list_length_ccd1</v>
@@ -9464,7 +9465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="str">
         <f>'AVS RMAP Config Registers'!C45</f>
         <v>0x46</v>
@@ -9509,16 +9510,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="str">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="43" t="str">
         <f>'AVS RMAP Config Registers'!C52</f>
         <v>0x47</v>
       </c>
-      <c r="C23" s="45" t="str">
+      <c r="C23" s="43" t="str">
         <f>CONCATENATE("x""",RIGHT(B23,LEN(B23)-2),"""")</f>
         <v>x"47"</v>
       </c>
-      <c r="D23" s="47" t="str">
+      <c r="D23" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C51</f>
         <v>CCD_2_windowing_2_config</v>
       </c>
@@ -9554,10 +9555,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="8" t="str">
         <f>'AVS RMAP Config Registers'!W56</f>
         <v>window_height_ccd2</v>
@@ -9590,10 +9591,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="8" t="s">
         <v>41</v>
       </c>
@@ -9624,10 +9625,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C56</f>
         <v>window_list_length_ccd2</v>
@@ -9660,7 +9661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="str">
         <f>'AVS RMAP Config Registers'!C59</f>
         <v>0x48</v>
@@ -9705,16 +9706,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="str">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="43" t="str">
         <f>'AVS RMAP Config Registers'!C66</f>
         <v>0x49</v>
       </c>
-      <c r="C28" s="45" t="str">
+      <c r="C28" s="43" t="str">
         <f>CONCATENATE("x""",RIGHT(B28,LEN(B28)-2),"""")</f>
         <v>x"49"</v>
       </c>
-      <c r="D28" s="47" t="str">
+      <c r="D28" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C65</f>
         <v>CCD_3_windowing_2_config</v>
       </c>
@@ -9750,10 +9751,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="8" t="str">
         <f>'AVS RMAP Config Registers'!W70</f>
         <v>window_height_ccd3</v>
@@ -9786,10 +9787,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="8" t="s">
         <v>41</v>
       </c>
@@ -9820,10 +9821,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C70</f>
         <v>window_list_length_ccd3</v>
@@ -9856,7 +9857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="str">
         <f>'AVS RMAP Config Registers'!C73</f>
         <v>0x4A</v>
@@ -9901,16 +9902,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="45" t="str">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="43" t="str">
         <f>'AVS RMAP Config Registers'!C80</f>
         <v>0x4B</v>
       </c>
-      <c r="C33" s="45" t="str">
+      <c r="C33" s="43" t="str">
         <f>CONCATENATE("x""",RIGHT(B33,LEN(B33)-2),"""")</f>
         <v>x"4B"</v>
       </c>
-      <c r="D33" s="47" t="str">
+      <c r="D33" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C79</f>
         <v>CCD_4_windowing_2_config</v>
       </c>
@@ -9946,10 +9947,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="8" t="str">
         <f>'AVS RMAP Config Registers'!W84</f>
         <v>window_height_ccd4</v>
@@ -9982,10 +9983,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="8" t="s">
         <v>41</v>
       </c>
@@ -10016,10 +10017,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C84</f>
         <v>window_list_length_ccd4</v>
@@ -10052,16 +10053,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="47" t="str">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C87</f>
         <v>0x4C</v>
       </c>
-      <c r="C37" s="47" t="str">
+      <c r="C37" s="42" t="str">
         <f>CONCATENATE("x""",RIGHT(B37,LEN(B37)-2),"""")</f>
         <v>x"4C"</v>
       </c>
-      <c r="D37" s="47" t="str">
+      <c r="D37" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C86</f>
         <v>operation_mode_config</v>
       </c>
@@ -10095,10 +10096,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AA91</f>
         <v>mode_selection_control</v>
@@ -10131,10 +10132,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="8" t="s">
         <v>41</v>
       </c>
@@ -10165,16 +10166,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="47" t="str">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C94</f>
         <v>0x4D</v>
       </c>
-      <c r="C40" s="47" t="str">
+      <c r="C40" s="42" t="str">
         <f>CONCATENATE("x""",RIGHT(B40,LEN(B40)-2),"""")</f>
         <v>x"4D"</v>
       </c>
-      <c r="D40" s="47" t="str">
+      <c r="D40" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C93</f>
         <v>sync_config</v>
       </c>
@@ -10210,10 +10211,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AF98</f>
         <v>self_trigger_control</v>
@@ -10245,10 +10246,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="8" t="s">
         <v>41</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C101</f>
         <v>0x4E</v>
@@ -10322,7 +10323,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C108</f>
         <v>0x4F</v>
@@ -10365,16 +10366,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="47" t="str">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C115</f>
         <v>0x50</v>
       </c>
-      <c r="C45" s="47" t="str">
+      <c r="C45" s="42" t="str">
         <f>CONCATENATE("x""",RIGHT(B45,LEN(B45)-2),"""")</f>
         <v>x"50"</v>
       </c>
-      <c r="D45" s="47" t="str">
+      <c r="D45" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C114</f>
         <v>frame_number</v>
       </c>
@@ -10410,10 +10411,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
       <c r="E46" s="8" t="s">
         <v>41</v>
       </c>
@@ -10444,16 +10445,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="47" t="str">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C122</f>
         <v>0x51</v>
       </c>
-      <c r="C47" s="47" t="str">
+      <c r="C47" s="42" t="str">
         <f>CONCATENATE("x""",RIGHT(B47,LEN(B47)-2),"""")</f>
         <v>x"51"</v>
       </c>
-      <c r="D47" s="47" t="str">
+      <c r="D47" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C121</f>
         <v>current_mode</v>
       </c>
@@ -10489,10 +10490,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
       <c r="E48" s="8" t="s">
         <v>41</v>
       </c>
@@ -10525,6 +10526,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="D45:D46"/>
@@ -10534,30 +10559,6 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10565,21 +10566,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M105"/>
   <sheetViews>
     <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>type t_rmap_memory_reg_ccd_seq_1_config is record</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>72</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v xml:space="preserve">  tri_level_clock_control : std_logic;</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
@@ -10656,7 +10657,7 @@
         <v xml:space="preserve">  image_clock_direction_control : std_logic;</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
@@ -10683,7 +10684,7 @@
         <v xml:space="preserve">  register_clock_direction_control : std_logic;</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>72</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v xml:space="preserve">  image_clock_transfer_count_control : std_logic_vector(15 downto 0);</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>72</v>
       </c>
@@ -10759,7 +10760,7 @@
         <v xml:space="preserve">  register_clock_transfer_count_control : std_logic_vector(11 downto 0);</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
@@ -10782,7 +10783,7 @@
         <v>end record t_rmap_memory_reg_ccd_seq_1_config;</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>68</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>type t_rmap_memory_reg_ccd_seq_2_config is record</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v xml:space="preserve">  slow_read_out_pause_count : std_logic_vector(19 downto 0);</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>end record t_rmap_memory_reg_ccd_seq_2_config;</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>type t_rmap_memory_reg_spw_packet_1_config is record</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v xml:space="preserve">  digitise_control : std_logic;</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>72</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v xml:space="preserve">  ccd_port_data_transmission_selection_control : std_logic_vector(1 downto 0);</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v xml:space="preserve">  packet_size_control : std_logic_vector(15 downto 0);</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>end record t_rmap_memory_reg_spw_packet_1_config;</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>type t_rmap_memory_reg_spw_packet_2_config is record</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>end record t_rmap_memory_reg_spw_packet_2_config;</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>type t_rmap_memory_reg_CCD_1_windowing_1_config is record</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
@@ -11122,7 +11123,7 @@
         <v xml:space="preserve">  window_list_pointer_initial_address_ccd1 : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -11145,7 +11146,7 @@
         <v>end record t_rmap_memory_reg_CCD_1_windowing_1_config;</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
@@ -11168,7 +11169,7 @@
         <v>type t_rmap_memory_reg_CCD_1_windowing_2_config is record</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
@@ -11206,7 +11207,7 @@
         <v xml:space="preserve">  window_width_ccd1 : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
@@ -11244,7 +11245,7 @@
         <v xml:space="preserve">  window_height_ccd1 : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>72</v>
       </c>
@@ -11282,7 +11283,7 @@
         <v xml:space="preserve">  window_list_length_ccd1 : std_logic_vector(15 downto 0);</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
@@ -11305,7 +11306,7 @@
         <v>end record t_rmap_memory_reg_CCD_1_windowing_2_config;</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
@@ -11328,7 +11329,7 @@
         <v>type t_rmap_memory_reg_CCD_2_windowing_1_config is record</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>72</v>
       </c>
@@ -11366,7 +11367,7 @@
         <v xml:space="preserve">  window_list_pointer_initial_address_ccd2 : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
@@ -11389,7 +11390,7 @@
         <v>end record t_rmap_memory_reg_CCD_2_windowing_1_config;</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>type t_rmap_memory_reg_CCD_2_windowing_2_config is record</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>72</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v xml:space="preserve">  window_width_ccd2 : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
@@ -11488,7 +11489,7 @@
         <v xml:space="preserve">  window_height_ccd2 : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>72</v>
       </c>
@@ -11526,7 +11527,7 @@
         <v xml:space="preserve">  window_list_length_ccd2 : std_logic_vector(15 downto 0);</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>70</v>
       </c>
@@ -11549,7 +11550,7 @@
         <v>end record t_rmap_memory_reg_CCD_2_windowing_2_config;</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>68</v>
       </c>
@@ -11572,7 +11573,7 @@
         <v>type t_rmap_memory_reg_CCD_3_windowing_1_config is record</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>72</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v xml:space="preserve">  window_list_pointer_initial_address_ccd3 : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
@@ -11633,7 +11634,7 @@
         <v>end record t_rmap_memory_reg_CCD_3_windowing_1_config;</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
@@ -11656,7 +11657,7 @@
         <v>type t_rmap_memory_reg_CCD_3_windowing_2_config is record</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>72</v>
       </c>
@@ -11694,7 +11695,7 @@
         <v xml:space="preserve">  window_width_ccd3 : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>72</v>
       </c>
@@ -11732,7 +11733,7 @@
         <v xml:space="preserve">  window_height_ccd3 : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>72</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v xml:space="preserve">  window_list_length_ccd3 : std_logic_vector(15 downto 0);</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>70</v>
       </c>
@@ -11793,7 +11794,7 @@
         <v>end record t_rmap_memory_reg_CCD_3_windowing_2_config;</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>68</v>
       </c>
@@ -11816,7 +11817,7 @@
         <v>type t_rmap_memory_reg_CCD_4_windowing_1_config is record</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>72</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v xml:space="preserve">  window_list_pointer_initial_address_ccd4 : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>70</v>
       </c>
@@ -11877,7 +11878,7 @@
         <v>end record t_rmap_memory_reg_CCD_4_windowing_1_config;</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>type t_rmap_memory_reg_CCD_4_windowing_2_config is record</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>72</v>
       </c>
@@ -11938,7 +11939,7 @@
         <v xml:space="preserve">  window_width_ccd4 : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>72</v>
       </c>
@@ -11976,7 +11977,7 @@
         <v xml:space="preserve">  window_height_ccd4 : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>72</v>
       </c>
@@ -12014,7 +12015,7 @@
         <v xml:space="preserve">  window_list_length_ccd4 : std_logic_vector(15 downto 0);</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>70</v>
       </c>
@@ -12037,7 +12038,7 @@
         <v>end record t_rmap_memory_reg_CCD_4_windowing_2_config;</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
@@ -12060,7 +12061,7 @@
         <v>type t_rmap_memory_reg_operation_mode_config is record</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>72</v>
       </c>
@@ -12098,7 +12099,7 @@
         <v xml:space="preserve">  mode_selection_control : std_logic_vector(3 downto 0);</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>70</v>
       </c>
@@ -12121,7 +12122,7 @@
         <v>end record t_rmap_memory_reg_operation_mode_config;</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
@@ -12144,7 +12145,7 @@
         <v>type t_rmap_memory_reg_sync_config is record</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>72</v>
       </c>
@@ -12182,7 +12183,7 @@
         <v xml:space="preserve">  sync_configuration : std_logic_vector(1 downto 0);</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
         <v>72</v>
       </c>
@@ -12209,7 +12210,7 @@
         <v xml:space="preserve">  self_trigger_control : std_logic;</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>end record t_rmap_memory_reg_sync_config;</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>68</v>
       </c>
@@ -12255,7 +12256,7 @@
         <v>type t_rmap_memory_reg_dac_control is record</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>70</v>
       </c>
@@ -12278,7 +12279,7 @@
         <v>end record t_rmap_memory_reg_dac_control;</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>68</v>
       </c>
@@ -12301,7 +12302,7 @@
         <v>type t_rmap_memory_reg_clock_source_control is record</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>70</v>
       </c>
@@ -12324,7 +12325,7 @@
         <v>end record t_rmap_memory_reg_clock_source_control;</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>68</v>
       </c>
@@ -12347,7 +12348,7 @@
         <v>type t_rmap_memory_reg_frame_number is record</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>72</v>
       </c>
@@ -12385,7 +12386,7 @@
         <v xml:space="preserve">  frame_number : std_logic_vector(1 downto 0);</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>70</v>
       </c>
@@ -12408,7 +12409,7 @@
         <v>end record t_rmap_memory_reg_frame_number;</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>68</v>
       </c>
@@ -12431,7 +12432,7 @@
         <v>type t_rmap_memory_reg_current_mode is record</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>72</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v xml:space="preserve">  current_mode : std_logic_vector(3 downto 0);</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>70</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>end record t_rmap_memory_reg_current_mode;</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>68</v>
       </c>
@@ -12514,7 +12515,7 @@
         <v>type t_rmap_memory_config_area is record</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D3</f>
@@ -12540,7 +12541,7 @@
         <v>ccd_seq_1_config : t_rmap_memory_reg_ccd_seq_1_config;</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D9</f>
@@ -12566,7 +12567,7 @@
         <v>ccd_seq_2_config : t_rmap_memory_reg_ccd_seq_2_config;</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D11</f>
@@ -12592,7 +12593,7 @@
         <v>spw_packet_1_config : t_rmap_memory_reg_spw_packet_1_config;</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D16</f>
@@ -12618,7 +12619,7 @@
         <v>spw_packet_2_config : t_rmap_memory_reg_spw_packet_2_config;</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D17</f>
@@ -12644,7 +12645,7 @@
         <v>CCD_1_windowing_1_config : t_rmap_memory_reg_CCD_1_windowing_1_config;</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D18</f>
@@ -12670,7 +12671,7 @@
         <v>CCD_1_windowing_2_config : t_rmap_memory_reg_CCD_1_windowing_2_config;</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D22</f>
@@ -12696,7 +12697,7 @@
         <v>CCD_2_windowing_1_config : t_rmap_memory_reg_CCD_2_windowing_1_config;</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D23</f>
@@ -12722,7 +12723,7 @@
         <v>CCD_2_windowing_2_config : t_rmap_memory_reg_CCD_2_windowing_2_config;</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
       <c r="C95" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D27</f>
@@ -12748,7 +12749,7 @@
         <v>CCD_3_windowing_1_config : t_rmap_memory_reg_CCD_3_windowing_1_config;</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
       <c r="C96" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D28</f>
@@ -12774,7 +12775,7 @@
         <v>CCD_3_windowing_2_config : t_rmap_memory_reg_CCD_3_windowing_2_config;</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D32</f>
@@ -12800,7 +12801,7 @@
         <v>CCD_4_windowing_1_config : t_rmap_memory_reg_CCD_4_windowing_1_config;</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
       <c r="C98" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D33</f>
@@ -12826,7 +12827,7 @@
         <v>CCD_4_windowing_2_config : t_rmap_memory_reg_CCD_4_windowing_2_config;</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D37</f>
@@ -12852,7 +12853,7 @@
         <v>operation_mode_config : t_rmap_memory_reg_operation_mode_config;</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D40</f>
@@ -12878,7 +12879,7 @@
         <v>sync_config : t_rmap_memory_reg_sync_config;</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D43</f>
@@ -12904,7 +12905,7 @@
         <v>dac_control : t_rmap_memory_reg_dac_control;</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
       <c r="C102" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D44</f>
@@ -12930,7 +12931,7 @@
         <v>clock_source_control : t_rmap_memory_reg_clock_source_control;</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D45</f>
@@ -12956,7 +12957,7 @@
         <v>frame_number : t_rmap_memory_reg_frame_number;</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
       <c r="C104" s="5" t="str">
         <f>'AVS RMAP Config Registers TABLE'!D47</f>
@@ -12982,7 +12983,7 @@
         <v>current_mode : t_rmap_memory_reg_current_mode;</v>
       </c>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>70</v>
       </c>
@@ -13011,47 +13012,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB73" sqref="AB10:AB73"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.44140625" customWidth="1"/>
     <col min="23" max="23" width="29" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" customWidth="1"/>
-    <col min="25" max="25" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" customWidth="1"/>
-    <col min="28" max="28" width="126.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.44140625" customWidth="1"/>
+    <col min="25" max="25" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.44140625" customWidth="1"/>
+    <col min="28" max="28" width="126.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>126</v>
       </c>
@@ -13093,9 +13092,9 @@
         <v>rmap_config_registers_i  : in t_rmap_memory_config_area;</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>78</v>
@@ -13143,20 +13142,20 @@
       </c>
       <c r="AB3" t="str">
         <f>CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3)</f>
-        <v>avalon_mm_spacewire_o.readdata  : out std_logic_vector(31 downto 0);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>avalon_mm_rmap_o.readdata  : out std_logic_vector(31 downto 0);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>78</v>
@@ -13204,12 +13203,12 @@
         <v>signal read_address_i  : std_logic_vector(7 downto 0);</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -13247,7 +13246,7 @@
         <v>case (read_address_i) is</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -13289,7 +13288,7 @@
         <v xml:space="preserve">  when (x"40") =&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -13310,7 +13309,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5" t="str">
         <f t="shared" ref="P11:P48" si="1">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>93</v>
@@ -13338,10 +13337,10 @@
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(0) &lt;= '0';</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(0) &lt;= '0';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -13362,7 +13361,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>93</v>
@@ -13400,10 +13399,10 @@
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(1) &lt;= rmap_config_registers_i.ccd_seq_1_config.tri_level_clock_control;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(1) &lt;= rmap_config_registers_i.ccd_seq_1_config.tri_level_clock_control;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -13424,7 +13423,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>93</v>
@@ -13462,10 +13461,10 @@
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(2) &lt;= rmap_config_registers_i.ccd_seq_1_config.image_clock_direction_control;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(2) &lt;= rmap_config_registers_i.ccd_seq_1_config.image_clock_direction_control;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -13486,7 +13485,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>93</v>
@@ -13524,10 +13523,10 @@
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(3) &lt;= rmap_config_registers_i.ccd_seq_1_config.register_clock_direction_control;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(3) &lt;= rmap_config_registers_i.ccd_seq_1_config.register_clock_direction_control;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -13548,7 +13547,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>93</v>
@@ -13586,10 +13585,10 @@
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(19 downto 4) &lt;= rmap_config_registers_i.ccd_seq_1_config.image_clock_transfer_count_control;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(19 downto 4) &lt;= rmap_config_registers_i.ccd_seq_1_config.image_clock_transfer_count_control;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -13610,7 +13609,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>93</v>
@@ -13648,10 +13647,10 @@
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 20) &lt;= rmap_config_registers_i.ccd_seq_1_config.register_clock_transfer_count_control;</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 20) &lt;= rmap_config_registers_i.ccd_seq_1_config.register_clock_transfer_count_control;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -13693,7 +13692,7 @@
         <v xml:space="preserve">  when (x"41") =&gt;</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -13714,7 +13713,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>93</v>
@@ -13752,10 +13751,10 @@
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(19 downto 0) &lt;= rmap_config_registers_i.ccd_seq_2_config.slow_read_out_pause_count;</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(19 downto 0) &lt;= rmap_config_registers_i.ccd_seq_2_config.slow_read_out_pause_count;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -13776,7 +13775,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>93</v>
@@ -13804,10 +13803,10 @@
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 20) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 20) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -13849,7 +13848,7 @@
         <v xml:space="preserve">  when (x"42") =&gt;</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -13870,7 +13869,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>93</v>
@@ -13898,10 +13897,10 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(0) &lt;= '0';</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(0) &lt;= '0';</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -13922,7 +13921,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>93</v>
@@ -13960,10 +13959,10 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(1) &lt;= rmap_config_registers_i.spw_packet_1_config.digitise_control;</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(1) &lt;= rmap_config_registers_i.spw_packet_1_config.digitise_control;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -13984,7 +13983,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>93</v>
@@ -14022,10 +14021,10 @@
       </c>
       <c r="AB23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(3 downto 2) &lt;= rmap_config_registers_i.spw_packet_1_config.ccd_port_data_transmission_selection_control;</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(3 downto 2) &lt;= rmap_config_registers_i.spw_packet_1_config.ccd_port_data_transmission_selection_control;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -14046,7 +14045,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>93</v>
@@ -14084,10 +14083,10 @@
       </c>
       <c r="AB24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(19 downto 4) &lt;= rmap_config_registers_i.spw_packet_1_config.packet_size_control;</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(19 downto 4) &lt;= rmap_config_registers_i.spw_packet_1_config.packet_size_control;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -14108,7 +14107,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>93</v>
@@ -14136,10 +14135,10 @@
       </c>
       <c r="AB25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 20) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 20) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -14181,7 +14180,7 @@
         <v xml:space="preserve">  when (x"43") =&gt;</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -14202,7 +14201,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>93</v>
@@ -14230,10 +14229,10 @@
       </c>
       <c r="AB27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 0) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 0) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -14275,7 +14274,7 @@
         <v xml:space="preserve">  when (x"44") =&gt;</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -14296,7 +14295,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>93</v>
@@ -14334,10 +14333,10 @@
       </c>
       <c r="AB29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 0) &lt;= rmap_config_registers_i.CCD_1_windowing_1_config.window_list_pointer_initial_address_ccd1;</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 0) &lt;= rmap_config_registers_i.CCD_1_windowing_1_config.window_list_pointer_initial_address_ccd1;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -14379,7 +14378,7 @@
         <v xml:space="preserve">  when (x"45") =&gt;</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -14400,7 +14399,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>93</v>
@@ -14438,10 +14437,10 @@
       </c>
       <c r="AB31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(5 downto 0) &lt;= rmap_config_registers_i.CCD_1_windowing_2_config.window_width_ccd1;</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(5 downto 0) &lt;= rmap_config_registers_i.CCD_1_windowing_2_config.window_width_ccd1;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -14462,7 +14461,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>93</v>
@@ -14500,10 +14499,10 @@
       </c>
       <c r="AB32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(11 downto 6) &lt;= rmap_config_registers_i.CCD_1_windowing_2_config.window_height_ccd1;</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(11 downto 6) &lt;= rmap_config_registers_i.CCD_1_windowing_2_config.window_height_ccd1;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -14524,7 +14523,7 @@
       <c r="O33" s="4"/>
       <c r="P33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>93</v>
@@ -14552,10 +14551,10 @@
       </c>
       <c r="AB33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(15 downto 12) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(15 downto 12) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -14576,7 +14575,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>93</v>
@@ -14614,10 +14613,10 @@
       </c>
       <c r="AB34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 16) &lt;= rmap_config_registers_i.CCD_1_windowing_2_config.window_list_length_ccd1;</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 16) &lt;= rmap_config_registers_i.CCD_1_windowing_2_config.window_list_length_ccd1;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -14659,7 +14658,7 @@
         <v xml:space="preserve">  when (x"46") =&gt;</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -14680,7 +14679,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>93</v>
@@ -14718,10 +14717,10 @@
       </c>
       <c r="AB36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 0) &lt;= rmap_config_registers_i.CCD_2_windowing_1_config.window_list_pointer_initial_address_ccd2;</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 0) &lt;= rmap_config_registers_i.CCD_2_windowing_1_config.window_list_pointer_initial_address_ccd2;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -14763,7 +14762,7 @@
         <v xml:space="preserve">  when (x"47") =&gt;</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -14784,7 +14783,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>93</v>
@@ -14822,10 +14821,10 @@
       </c>
       <c r="AB38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(5 downto 0) &lt;= rmap_config_registers_i.CCD_2_windowing_2_config.window_width_ccd2;</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(5 downto 0) &lt;= rmap_config_registers_i.CCD_2_windowing_2_config.window_width_ccd2;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -14846,7 +14845,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>93</v>
@@ -14884,10 +14883,10 @@
       </c>
       <c r="AB39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(11 downto 6) &lt;= rmap_config_registers_i.CCD_2_windowing_2_config.window_height_ccd2;</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(11 downto 6) &lt;= rmap_config_registers_i.CCD_2_windowing_2_config.window_height_ccd2;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -14908,7 +14907,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>93</v>
@@ -14936,10 +14935,10 @@
       </c>
       <c r="AB40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(15 downto 12) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(15 downto 12) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -14960,7 +14959,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>93</v>
@@ -14998,10 +14997,10 @@
       </c>
       <c r="AB41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 16) &lt;= rmap_config_registers_i.CCD_2_windowing_2_config.window_list_length_ccd2;</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 16) &lt;= rmap_config_registers_i.CCD_2_windowing_2_config.window_list_length_ccd2;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -15043,7 +15042,7 @@
         <v xml:space="preserve">  when (x"48") =&gt;</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -15064,7 +15063,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>93</v>
@@ -15102,10 +15101,10 @@
       </c>
       <c r="AB43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 0) &lt;= rmap_config_registers_i.CCD_3_windowing_1_config.window_list_pointer_initial_address_ccd3;</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 0) &lt;= rmap_config_registers_i.CCD_3_windowing_1_config.window_list_pointer_initial_address_ccd3;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -15147,7 +15146,7 @@
         <v xml:space="preserve">  when (x"49") =&gt;</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -15168,7 +15167,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>93</v>
@@ -15206,10 +15205,10 @@
       </c>
       <c r="AB45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(5 downto 0) &lt;= rmap_config_registers_i.CCD_3_windowing_2_config.window_width_ccd3;</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(5 downto 0) &lt;= rmap_config_registers_i.CCD_3_windowing_2_config.window_width_ccd3;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -15230,7 +15229,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>93</v>
@@ -15268,10 +15267,10 @@
       </c>
       <c r="AB46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(11 downto 6) &lt;= rmap_config_registers_i.CCD_3_windowing_2_config.window_height_ccd3;</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(11 downto 6) &lt;= rmap_config_registers_i.CCD_3_windowing_2_config.window_height_ccd3;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -15292,7 +15291,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>93</v>
@@ -15320,10 +15319,10 @@
       </c>
       <c r="AB47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(15 downto 12) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(15 downto 12) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -15344,7 +15343,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>93</v>
@@ -15382,10 +15381,10 @@
       </c>
       <c r="AB48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 16) &lt;= rmap_config_registers_i.CCD_3_windowing_2_config.window_list_length_ccd3;</v>
-      </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 16) &lt;= rmap_config_registers_i.CCD_3_windowing_2_config.window_list_length_ccd3;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -15427,7 +15426,7 @@
         <v xml:space="preserve">  when (x"4A") =&gt;</v>
       </c>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -15448,7 +15447,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="5" t="str">
         <f t="shared" ref="P50" si="8">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>93</v>
@@ -15486,10 +15485,10 @@
       </c>
       <c r="AB50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 0) &lt;= rmap_config_registers_i.CCD_4_windowing_1_config.window_list_pointer_initial_address_ccd4;</v>
-      </c>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 0) &lt;= rmap_config_registers_i.CCD_4_windowing_1_config.window_list_pointer_initial_address_ccd4;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -15531,7 +15530,7 @@
         <v xml:space="preserve">  when (x"4B") =&gt;</v>
       </c>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -15552,7 +15551,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="5" t="str">
         <f t="shared" ref="P52:P55" si="9">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>93</v>
@@ -15590,10 +15589,10 @@
       </c>
       <c r="AB52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(5 downto 0) &lt;= rmap_config_registers_i.CCD_4_windowing_2_config.window_width_ccd4;</v>
-      </c>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(5 downto 0) &lt;= rmap_config_registers_i.CCD_4_windowing_2_config.window_width_ccd4;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -15614,7 +15613,7 @@
       <c r="O53" s="4"/>
       <c r="P53" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>93</v>
@@ -15652,10 +15651,10 @@
       </c>
       <c r="AB53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(11 downto 6) &lt;= rmap_config_registers_i.CCD_4_windowing_2_config.window_height_ccd4;</v>
-      </c>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(11 downto 6) &lt;= rmap_config_registers_i.CCD_4_windowing_2_config.window_height_ccd4;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -15676,7 +15675,7 @@
       <c r="O54" s="4"/>
       <c r="P54" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>93</v>
@@ -15704,10 +15703,10 @@
       </c>
       <c r="AB54" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(15 downto 12) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(15 downto 12) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -15728,7 +15727,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>93</v>
@@ -15766,10 +15765,10 @@
       </c>
       <c r="AB55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 16) &lt;= rmap_config_registers_i.CCD_4_windowing_2_config.window_list_length_ccd4;</v>
-      </c>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 16) &lt;= rmap_config_registers_i.CCD_4_windowing_2_config.window_list_length_ccd4;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -15811,7 +15810,7 @@
         <v xml:space="preserve">  when (x"4C") =&gt;</v>
       </c>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -15862,7 +15861,7 @@
         <v xml:space="preserve">    avs_readdata_o(3 downto 0) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -15883,7 +15882,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="5" t="str">
         <f t="shared" ref="P58:P59" si="11">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>93</v>
@@ -15921,10 +15920,10 @@
       </c>
       <c r="AB58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(7 downto 4) &lt;= rmap_config_registers_i.operation_mode_config.mode_selection_control;</v>
-      </c>
-    </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(7 downto 4) &lt;= rmap_config_registers_i.operation_mode_config.mode_selection_control;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -15945,7 +15944,7 @@
       <c r="O59" s="4"/>
       <c r="P59" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>93</v>
@@ -15973,10 +15972,10 @@
       </c>
       <c r="AB59" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 8) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 8) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -16018,7 +16017,7 @@
         <v xml:space="preserve">  when (x"4D") =&gt;</v>
       </c>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -16039,7 +16038,7 @@
       <c r="O61" s="4"/>
       <c r="P61" s="5" t="str">
         <f t="shared" ref="P61:P63" si="13">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>93</v>
@@ -16077,10 +16076,10 @@
       </c>
       <c r="AB61" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(1 downto 0) &lt;= rmap_config_registers_i.sync_config.sync_configuration;</v>
-      </c>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(1 downto 0) &lt;= rmap_config_registers_i.sync_config.sync_configuration;</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -16101,7 +16100,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>93</v>
@@ -16139,10 +16138,10 @@
       </c>
       <c r="AB62" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(2) &lt;= rmap_config_registers_i.sync_config.self_trigger_control;</v>
-      </c>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(2) &lt;= rmap_config_registers_i.sync_config.self_trigger_control;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -16163,7 +16162,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>93</v>
@@ -16191,10 +16190,10 @@
       </c>
       <c r="AB63" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 3) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 3) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -16236,7 +16235,7 @@
         <v xml:space="preserve">  when (x"4E") =&gt;</v>
       </c>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -16257,7 +16256,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="5" t="str">
         <f t="shared" ref="P65" si="15">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>93</v>
@@ -16285,10 +16284,10 @@
       </c>
       <c r="AB65" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 0) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 0) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -16330,7 +16329,7 @@
         <v xml:space="preserve">  when (x"4F") =&gt;</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -16351,7 +16350,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="5" t="str">
         <f t="shared" ref="P67" si="16">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>93</v>
@@ -16379,10 +16378,10 @@
       </c>
       <c r="AB67" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 0) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 0) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -16424,7 +16423,7 @@
         <v xml:space="preserve">  when (x"50") =&gt;</v>
       </c>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -16445,7 +16444,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="5" t="str">
         <f t="shared" ref="P69:P70" si="17">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>93</v>
@@ -16483,10 +16482,10 @@
       </c>
       <c r="AB69" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(1 downto 0) &lt;= rmap_config_registers_i.frame_number.frame_number;</v>
-      </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(1 downto 0) &lt;= rmap_config_registers_i.frame_number.frame_number;</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -16507,7 +16506,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>93</v>
@@ -16535,10 +16534,10 @@
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 2) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 2) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -16580,7 +16579,7 @@
         <v xml:space="preserve">  when (x"51") =&gt;</v>
       </c>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -16601,7 +16600,7 @@
       <c r="O72" s="4"/>
       <c r="P72" s="5" t="str">
         <f t="shared" ref="P72:P73" si="19">$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>93</v>
@@ -16639,10 +16638,10 @@
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(3 downto 0) &lt;= rmap_config_registers_i.current_mode.current_mode;</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(3 downto 0) &lt;= rmap_config_registers_i.current_mode.current_mode;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -16663,7 +16662,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>93</v>
@@ -16691,10 +16690,10 @@
       </c>
       <c r="AB73" t="str">
         <f t="shared" ref="AB73:AB76" si="21">CONCATENATE(B73,C73,D73,E73,F73,G73,H73,I73,J73,K73,L73,M73,N73,O73,P73,Q73,R73,S73,T73,U73,V73,W73,X73,Y73,Z73)</f>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata(31 downto 4) &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata(31 downto 4) &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -16733,7 +16732,7 @@
         <v xml:space="preserve">  when others =&gt;</v>
       </c>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -16754,7 +16753,7 @@
       <c r="O75" s="4"/>
       <c r="P75" s="5" t="str">
         <f>$B$3</f>
-        <v>avalon_mm_spacewire_o.readdata</v>
+        <v>avalon_mm_rmap_o.readdata</v>
       </c>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
@@ -16774,10 +16773,10 @@
       </c>
       <c r="AB75" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">    avalon_mm_spacewire_o.readdata &lt;= (others =&gt; '0');</v>
-      </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    avalon_mm_rmap_o.readdata &lt;= (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -16817,45 +16816,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB95"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView topLeftCell="O25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
     <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" customWidth="1"/>
     <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" customWidth="1"/>
-    <col min="20" max="20" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.28515625" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.33203125" customWidth="1"/>
+    <col min="28" max="28" width="140" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>144</v>
       </c>
@@ -16905,10 +16905,10 @@
       </c>
       <c r="AB2" t="str">
         <f>CONCATENATE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2,Z2)</f>
-        <v>avalon_mm_spacewire_i.writedata  : instd_logic_vector(31 downto 0);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>avalon_mm_rmap_i.writedata  : instd_logic_vector(31 downto 0);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>129</v>
       </c>
@@ -16950,17 +16950,17 @@
         <v>rmap_config_registers_o  : out t_rmap_memory_config_area;</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>78</v>
@@ -17008,12 +17008,12 @@
         <v>signal write_address_i  : std_logic_vector(7 downto 0);</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -17051,7 +17051,7 @@
         <v>case (write_address_i) is</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -17093,7 +17093,7 @@
         <v xml:space="preserve">  when (x"40") =&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="V11" s="5" t="str">
         <f t="shared" ref="V11:V15" si="1">$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>93</v>
@@ -17152,10 +17152,10 @@
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.tri_level_clock_control &lt;= avalon_mm_spacewire_i.writedata(1);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.tri_level_clock_control &lt;= avalon_mm_rmap_i.writedata(1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="V12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>93</v>
@@ -17214,10 +17214,10 @@
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.image_clock_direction_control &lt;= avalon_mm_spacewire_i.writedata(2);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.image_clock_direction_control &lt;= avalon_mm_rmap_i.writedata(2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -17259,7 +17259,7 @@
       </c>
       <c r="V13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>93</v>
@@ -17276,10 +17276,10 @@
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.register_clock_direction_control &lt;= avalon_mm_spacewire_i.writedata(3);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.register_clock_direction_control &lt;= avalon_mm_rmap_i.writedata(3);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="V14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>93</v>
@@ -17338,10 +17338,10 @@
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.image_clock_transfer_count_control &lt;= avalon_mm_spacewire_i.writedata(19 downto 4);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.image_clock_transfer_count_control &lt;= avalon_mm_rmap_i.writedata(19 downto 4);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -17383,7 +17383,7 @@
       </c>
       <c r="V15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>93</v>
@@ -17400,10 +17400,10 @@
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.register_clock_transfer_count_control &lt;= avalon_mm_spacewire_i.writedata(31 downto 20);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.register_clock_transfer_count_control &lt;= avalon_mm_rmap_i.writedata(31 downto 20);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -17445,7 +17445,7 @@
         <v xml:space="preserve">  when (x"41") =&gt;</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="V17" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>93</v>
@@ -17504,10 +17504,10 @@
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_2_config.slow_read_out_pause_count &lt;= avalon_mm_spacewire_i.writedata(19 downto 0);</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_2_config.slow_read_out_pause_count &lt;= avalon_mm_rmap_i.writedata(19 downto 0);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -17549,7 +17549,7 @@
         <v xml:space="preserve">  when (x"42") =&gt;</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -17591,7 +17591,7 @@
       </c>
       <c r="V19" s="5" t="str">
         <f t="shared" ref="V19:V21" si="3">$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>93</v>
@@ -17608,10 +17608,10 @@
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.digitise_control &lt;= avalon_mm_spacewire_i.writedata(1);</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.digitise_control &lt;= avalon_mm_rmap_i.writedata(1);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -17653,7 +17653,7 @@
       </c>
       <c r="V20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>93</v>
@@ -17670,10 +17670,10 @@
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.ccd_port_data_transmission_selection_control &lt;= avalon_mm_spacewire_i.writedata(3 downto 2);</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.ccd_port_data_transmission_selection_control &lt;= avalon_mm_rmap_i.writedata(3 downto 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="V21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>93</v>
@@ -17732,10 +17732,10 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.packet_size_control &lt;= avalon_mm_spacewire_i.writedata(19 downto 4);</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.packet_size_control &lt;= avalon_mm_rmap_i.writedata(19 downto 4);</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -17777,7 +17777,7 @@
         <v xml:space="preserve">  when (x"43") =&gt;</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -17816,7 +17816,7 @@
         <v xml:space="preserve">    null;</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -17858,7 +17858,7 @@
         <v xml:space="preserve">  when (x"44") =&gt;</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -17900,7 +17900,7 @@
       </c>
       <c r="V25" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W25" s="2" t="s">
         <v>93</v>
@@ -17917,10 +17917,10 @@
       </c>
       <c r="AB25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_1_config.window_list_pointer_initial_address_ccd1 &lt;= avalon_mm_spacewire_i.writedata(31 downto 0);</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_1_config.window_list_pointer_initial_address_ccd1 &lt;= avalon_mm_rmap_i.writedata(31 downto 0);</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -17962,7 +17962,7 @@
         <v xml:space="preserve">  when (x"45") =&gt;</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="V27" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>93</v>
@@ -18021,10 +18021,10 @@
       </c>
       <c r="AB27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_width_ccd1 &lt;= avalon_mm_spacewire_i.writedata(5 downto 0);</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_width_ccd1 &lt;= avalon_mm_rmap_i.writedata(5 downto 0);</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -18066,7 +18066,7 @@
       </c>
       <c r="V28" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>93</v>
@@ -18083,10 +18083,10 @@
       </c>
       <c r="AB28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_height_ccd1 &lt;= avalon_mm_spacewire_i.writedata(11 downto 6);</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_height_ccd1 &lt;= avalon_mm_rmap_i.writedata(11 downto 6);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -18128,7 +18128,7 @@
       </c>
       <c r="V29" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W29" s="2" t="s">
         <v>93</v>
@@ -18145,10 +18145,10 @@
       </c>
       <c r="AB29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_list_length_ccd1 &lt;= avalon_mm_spacewire_i.writedata(31 downto 16);</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_list_length_ccd1 &lt;= avalon_mm_rmap_i.writedata(31 downto 16);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -18190,7 +18190,7 @@
         <v xml:space="preserve">  when (x"46") =&gt;</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18232,7 +18232,7 @@
       </c>
       <c r="V31" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>93</v>
@@ -18249,10 +18249,10 @@
       </c>
       <c r="AB31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_1_config.window_list_pointer_initial_address_ccd2 &lt;= avalon_mm_spacewire_i.writedata(31 downto 0);</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_1_config.window_list_pointer_initial_address_ccd2 &lt;= avalon_mm_rmap_i.writedata(31 downto 0);</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -18294,7 +18294,7 @@
         <v xml:space="preserve">  when (x"47") =&gt;</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -18336,7 +18336,7 @@
       </c>
       <c r="V33" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>93</v>
@@ -18353,10 +18353,10 @@
       </c>
       <c r="AB33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_width_ccd2 &lt;= avalon_mm_spacewire_i.writedata(5 downto 0);</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_width_ccd2 &lt;= avalon_mm_rmap_i.writedata(5 downto 0);</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -18398,7 +18398,7 @@
       </c>
       <c r="V34" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W34" s="2" t="s">
         <v>93</v>
@@ -18415,10 +18415,10 @@
       </c>
       <c r="AB34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_height_ccd2 &lt;= avalon_mm_spacewire_i.writedata(11 downto 6);</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_height_ccd2 &lt;= avalon_mm_rmap_i.writedata(11 downto 6);</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="V35" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W35" s="2" t="s">
         <v>93</v>
@@ -18477,10 +18477,10 @@
       </c>
       <c r="AB35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_list_length_ccd2 &lt;= avalon_mm_spacewire_i.writedata(31 downto 16);</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_list_length_ccd2 &lt;= avalon_mm_rmap_i.writedata(31 downto 16);</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -18522,7 +18522,7 @@
         <v xml:space="preserve">  when (x"48") =&gt;</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="V37" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W37" s="2" t="s">
         <v>93</v>
@@ -18581,10 +18581,10 @@
       </c>
       <c r="AB37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_1_config.window_list_pointer_initial_address_ccd3 &lt;= avalon_mm_spacewire_i.writedata(31 downto 0);</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_1_config.window_list_pointer_initial_address_ccd3 &lt;= avalon_mm_rmap_i.writedata(31 downto 0);</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -18626,7 +18626,7 @@
         <v xml:space="preserve">  when (x"49") =&gt;</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -18668,7 +18668,7 @@
       </c>
       <c r="V39" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W39" s="2" t="s">
         <v>93</v>
@@ -18685,10 +18685,10 @@
       </c>
       <c r="AB39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_width_ccd3 &lt;= avalon_mm_spacewire_i.writedata(5 downto 0);</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_width_ccd3 &lt;= avalon_mm_rmap_i.writedata(5 downto 0);</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -18730,7 +18730,7 @@
       </c>
       <c r="V40" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>93</v>
@@ -18747,10 +18747,10 @@
       </c>
       <c r="AB40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_height_ccd3 &lt;= avalon_mm_spacewire_i.writedata(11 downto 6);</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_height_ccd3 &lt;= avalon_mm_rmap_i.writedata(11 downto 6);</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -18792,7 +18792,7 @@
       </c>
       <c r="V41" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W41" s="2" t="s">
         <v>93</v>
@@ -18809,10 +18809,10 @@
       </c>
       <c r="AB41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_list_length_ccd3 &lt;= avalon_mm_spacewire_i.writedata(31 downto 16);</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_list_length_ccd3 &lt;= avalon_mm_rmap_i.writedata(31 downto 16);</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -18854,7 +18854,7 @@
         <v xml:space="preserve">  when (x"4A") =&gt;</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -18896,7 +18896,7 @@
       </c>
       <c r="V43" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W43" s="2" t="s">
         <v>93</v>
@@ -18913,10 +18913,10 @@
       </c>
       <c r="AB43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_1_config.window_list_pointer_initial_address_ccd4 &lt;= avalon_mm_spacewire_i.writedata(31 downto 0);</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_1_config.window_list_pointer_initial_address_ccd4 &lt;= avalon_mm_rmap_i.writedata(31 downto 0);</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -18958,7 +18958,7 @@
         <v xml:space="preserve">  when (x"4B") =&gt;</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="V45" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>93</v>
@@ -19017,10 +19017,10 @@
       </c>
       <c r="AB45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_width_ccd4 &lt;= avalon_mm_spacewire_i.writedata(5 downto 0);</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_width_ccd4 &lt;= avalon_mm_rmap_i.writedata(5 downto 0);</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -19062,7 +19062,7 @@
       </c>
       <c r="V46" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W46" s="2" t="s">
         <v>93</v>
@@ -19079,10 +19079,10 @@
       </c>
       <c r="AB46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_height_ccd4 &lt;= avalon_mm_spacewire_i.writedata(11 downto 6);</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_height_ccd4 &lt;= avalon_mm_rmap_i.writedata(11 downto 6);</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="V47" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W47" s="2" t="s">
         <v>93</v>
@@ -19141,10 +19141,10 @@
       </c>
       <c r="AB47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_list_length_ccd4 &lt;= avalon_mm_spacewire_i.writedata(31 downto 16);</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_list_length_ccd4 &lt;= avalon_mm_rmap_i.writedata(31 downto 16);</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -19186,7 +19186,7 @@
         <v xml:space="preserve">  when (x"4C") =&gt;</v>
       </c>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -19228,7 +19228,7 @@
       </c>
       <c r="V49" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W49" s="2" t="s">
         <v>93</v>
@@ -19245,10 +19245,10 @@
       </c>
       <c r="AB49" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.operation_mode_config.mode_selection_control &lt;= avalon_mm_spacewire_i.writedata(7 downto 4);</v>
-      </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.operation_mode_config.mode_selection_control &lt;= avalon_mm_rmap_i.writedata(7 downto 4);</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -19290,7 +19290,7 @@
         <v xml:space="preserve">  when (x"4D") =&gt;</v>
       </c>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -19332,7 +19332,7 @@
       </c>
       <c r="V51" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W51" s="2" t="s">
         <v>93</v>
@@ -19349,10 +19349,10 @@
       </c>
       <c r="AB51" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.sync_config.sync_configuration &lt;= avalon_mm_spacewire_i.writedata(1 downto 0);</v>
-      </c>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.sync_config.sync_configuration &lt;= avalon_mm_rmap_i.writedata(1 downto 0);</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="V52" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W52" s="2" t="s">
         <v>93</v>
@@ -19411,10 +19411,10 @@
       </c>
       <c r="AB52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.sync_config.self_trigger_control &lt;= avalon_mm_spacewire_i.writedata(2);</v>
-      </c>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.sync_config.self_trigger_control &lt;= avalon_mm_rmap_i.writedata(2);</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -19456,7 +19456,7 @@
         <v xml:space="preserve">  when (x"4E") =&gt;</v>
       </c>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -19495,7 +19495,7 @@
         <v xml:space="preserve">    null;</v>
       </c>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -19537,7 +19537,7 @@
         <v xml:space="preserve">  when (x"4F") =&gt;</v>
       </c>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -19576,7 +19576,7 @@
         <v xml:space="preserve">    null;</v>
       </c>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -19618,7 +19618,7 @@
         <v xml:space="preserve">  when (x"50") =&gt;</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -19660,7 +19660,7 @@
       </c>
       <c r="V58" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W58" s="2" t="s">
         <v>93</v>
@@ -19677,10 +19677,10 @@
       </c>
       <c r="AB58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.frame_number.frame_number &lt;= avalon_mm_spacewire_i.writedata(1 downto 0);</v>
-      </c>
-    </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.frame_number.frame_number &lt;= avalon_mm_rmap_i.writedata(1 downto 0);</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -19722,7 +19722,7 @@
         <v xml:space="preserve">  when (x"51") =&gt;</v>
       </c>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -19764,7 +19764,7 @@
       </c>
       <c r="V60" s="5" t="str">
         <f>$B$2</f>
-        <v>avalon_mm_spacewire_i.writedata</v>
+        <v>avalon_mm_rmap_i.writedata</v>
       </c>
       <c r="W60" s="2" t="s">
         <v>93</v>
@@ -19781,10 +19781,10 @@
       </c>
       <c r="AB60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    rmap_config_registers_o.current_mode.current_mode &lt;= avalon_mm_spacewire_i.writedata(3 downto 0);</v>
-      </c>
-    </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    rmap_config_registers_o.current_mode.current_mode &lt;= avalon_mm_rmap_i.writedata(3 downto 0);</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -19825,7 +19825,7 @@
         <v xml:space="preserve">  when others) =&gt;</v>
       </c>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -19864,7 +19864,7 @@
         <v xml:space="preserve">    null;</v>
       </c>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -19897,12 +19897,12 @@
         <v>end case;</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -19957,7 +19957,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.tri_level_clock_control &lt;= '0';</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -20012,7 +20012,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.image_clock_direction_control &lt;= '0';</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -20067,7 +20067,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.register_clock_direction_control &lt;= '0';</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -20122,7 +20122,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.image_clock_transfer_count_control &lt;= x"119E";</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -20177,7 +20177,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_1_config.register_clock_transfer_count_control &lt;= x"8F7";</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -20232,7 +20232,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.ccd_seq_2_config.slow_read_out_pause_count &lt;= x"001F4";</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -20287,7 +20287,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.digitise_control &lt;= '0';</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -20342,7 +20342,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.ccd_port_data_transmission_selection_control &lt;= "11";</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -20397,7 +20397,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.spw_packet_1_config.packet_size_control &lt;= x"11F8";</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -20452,7 +20452,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_1_config.window_list_pointer_initial_address_ccd1 &lt;= x"00000000";</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -20507,7 +20507,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_width_ccd1 &lt;= "000000";</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -20562,7 +20562,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_height_ccd1 &lt;= "000000";</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -20617,7 +20617,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_1_windowing_2_config.window_list_length_ccd1 &lt;= x"0000";</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -20672,7 +20672,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_1_config.window_list_pointer_initial_address_ccd2 &lt;= x"00000000";</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -20727,7 +20727,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_width_ccd2 &lt;= "000000";</v>
       </c>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -20782,7 +20782,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_height_ccd2 &lt;= "000000";</v>
       </c>
     </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -20837,7 +20837,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_2_windowing_2_config.window_list_length_ccd2 &lt;= x"0000";</v>
       </c>
     </row>
-    <row r="83" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -20892,7 +20892,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_1_config.window_list_pointer_initial_address_ccd3 &lt;= x"00000000";</v>
       </c>
     </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -20947,7 +20947,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_width_ccd3 &lt;= "000000";</v>
       </c>
     </row>
-    <row r="85" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -21002,7 +21002,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_height_ccd3 &lt;= "000000";</v>
       </c>
     </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -21057,7 +21057,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_3_windowing_2_config.window_list_length_ccd3 &lt;= x"0000";</v>
       </c>
     </row>
-    <row r="87" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -21112,7 +21112,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_1_config.window_list_pointer_initial_address_ccd4 &lt;= x"00000000";</v>
       </c>
     </row>
-    <row r="88" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -21167,7 +21167,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_width_ccd4 &lt;= "000000";</v>
       </c>
     </row>
-    <row r="89" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -21222,7 +21222,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_height_ccd4 &lt;= "000000";</v>
       </c>
     </row>
-    <row r="90" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -21277,7 +21277,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.CCD_4_windowing_2_config.window_list_length_ccd4 &lt;= x"0000";</v>
       </c>
     </row>
-    <row r="91" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -21332,7 +21332,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.operation_mode_config.mode_selection_control &lt;= x"1";</v>
       </c>
     </row>
-    <row r="92" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -21387,7 +21387,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.sync_config.sync_configuration &lt;= "00";</v>
       </c>
     </row>
-    <row r="93" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -21442,7 +21442,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.sync_config.self_trigger_control &lt;= '0';</v>
       </c>
     </row>
-    <row r="94" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -21497,7 +21497,7 @@
         <v xml:space="preserve">    rmap_config_registers_o.frame_number.frame_number &lt;= "00";</v>
       </c>
     </row>
-    <row r="95" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>

--- a/FPGA_Developments/COM_Module_v1_5/References/NIOS_RMAP_Config_Map.xlsx
+++ b/FPGA_Developments/COM_Module_v1_5/References/NIOS_RMAP_Config_Map.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Dev\SimuCam_Development\FPGA_Developments\COM_Module_v1_5\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F152E-03D2-4BC8-8FD2-A837462F53F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE2CF5-8379-4183-81D4-293B8201D31F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVS RMAP Config Registers" sheetId="1" r:id="rId1"/>
     <sheet name="AVS RMAP Config Registers TABLE" sheetId="13" r:id="rId2"/>
-    <sheet name="Config Register VHDL Types" sheetId="14" r:id="rId3"/>
-    <sheet name="Config Reg VHDL RMAP RD Case" sheetId="15" r:id="rId4"/>
-    <sheet name="Config Reg VHDL RMAP WR Case" sheetId="16" r:id="rId5"/>
+    <sheet name="NIOS defines" sheetId="17" r:id="rId3"/>
+    <sheet name="Config Register VHDL Types" sheetId="14" r:id="rId4"/>
+    <sheet name="Config Reg VHDL RMAP RD Case" sheetId="15" r:id="rId5"/>
+    <sheet name="Config Reg VHDL RMAP WR Case" sheetId="16" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="213">
   <si>
     <t>0x0000</t>
   </si>
@@ -474,12 +478,213 @@
   <si>
     <t>avalon_mm_rmap_o.readdata</t>
   </si>
+  <si>
+    <t>Reg Name</t>
+  </si>
+  <si>
+    <t>Addr [hex]</t>
+  </si>
+  <si>
+    <t>Define prefix</t>
+  </si>
+  <si>
+    <t>Define name</t>
+  </si>
+  <si>
+    <t>Define suffix</t>
+  </si>
+  <si>
+    <t>Full Define</t>
+  </si>
+  <si>
+    <t>Name length</t>
+  </si>
+  <si>
+    <t>Final Text</t>
+  </si>
+  <si>
+    <t>_REG_OFST</t>
+  </si>
+  <si>
+    <t>Bit Mask Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+  </si>
+  <si>
+    <t>COMM_RMAP_</t>
+  </si>
+  <si>
+    <t>_MSK</t>
+  </si>
+  <si>
+    <t>0xFFF</t>
+  </si>
+  <si>
+    <t>0xFFFFF</t>
+  </si>
+  <si>
+    <t>0xF</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF</t>
+  </si>
+  <si>
+    <t>0b111111</t>
+  </si>
+  <si>
+    <t>WINDOW_WIDTH_CCD1</t>
+  </si>
+  <si>
+    <t>WINDOW_HEIGHT_CCD1</t>
+  </si>
+  <si>
+    <t>WINDOW_WIDTH_CCD2</t>
+  </si>
+  <si>
+    <t>WINDOW_HEIGHT_CCD2</t>
+  </si>
+  <si>
+    <t>WINDOW_WIDTH_CCD3</t>
+  </si>
+  <si>
+    <t>WINDOW_HEIGHT_CCD3</t>
+  </si>
+  <si>
+    <t>WINDOW_WIDTH_CCD4</t>
+  </si>
+  <si>
+    <t>WINDOW_HEIGHT_CCD4</t>
+  </si>
+  <si>
+    <t>FRAME_NUMBER</t>
+  </si>
+  <si>
+    <t>CURRENT_MODE</t>
+  </si>
+  <si>
+    <t>TRI_LV_CLK_CTRL</t>
+  </si>
+  <si>
+    <t>IMGCLK_TRCNT_CTRL</t>
+  </si>
+  <si>
+    <t>IMGCLK_DIR_CTRL</t>
+  </si>
+  <si>
+    <t>REGCLK_DIR_CTRL</t>
+  </si>
+  <si>
+    <t>REGCLK_TRCNT_CTRL</t>
+  </si>
+  <si>
+    <t>SL_RDOUT_PAUSE_CNT</t>
+  </si>
+  <si>
+    <t>DIGITISE_CTRL</t>
+  </si>
+  <si>
+    <t>CCD_DTRAN_SEL_CTRL</t>
+  </si>
+  <si>
+    <t>PACKET_SIZE_CTRL</t>
+  </si>
+  <si>
+    <t>WLIST_P_IADDR_CCD1</t>
+  </si>
+  <si>
+    <t>WLIST_P_IADDR_CCD2</t>
+  </si>
+  <si>
+    <t>WLIST_P_IADDR_CCD3</t>
+  </si>
+  <si>
+    <t>WLIST_P_IADDR_CCD4</t>
+  </si>
+  <si>
+    <t>WLIST_LENGTH_CCD1</t>
+  </si>
+  <si>
+    <t>WLIST_LENGTH_CCD2</t>
+  </si>
+  <si>
+    <t>WLIST_LENGTH_CCD3</t>
+  </si>
+  <si>
+    <t>WLIST_LENGTH_CCD4</t>
+  </si>
+  <si>
+    <t>MODE_SEL_CTRL</t>
+  </si>
+  <si>
+    <t>SYNC_CFG</t>
+  </si>
+  <si>
+    <t>SELF_TRIGGER_CTRL</t>
+  </si>
+  <si>
+    <t>COMM_RMAP</t>
+  </si>
+  <si>
+    <t>CCD_SEQ_1_CFG</t>
+  </si>
+  <si>
+    <t>CCD_SEQ_2_CFG</t>
+  </si>
+  <si>
+    <t>SPW_PKT_1_CFG</t>
+  </si>
+  <si>
+    <t>SPW_PKT_2_CFG</t>
+  </si>
+  <si>
+    <t>CCD_1_WD_1_CFG</t>
+  </si>
+  <si>
+    <t>CCD_1_WD_2_CFG</t>
+  </si>
+  <si>
+    <t>CCD_2_WD_1_CFG</t>
+  </si>
+  <si>
+    <t>CCD_3_WD_1_CFG</t>
+  </si>
+  <si>
+    <t>CCD_3_WD_2_CFG</t>
+  </si>
+  <si>
+    <t>CCD_4_WD_1_CFG</t>
+  </si>
+  <si>
+    <t>CCD_4_WD_2_CFG</t>
+  </si>
+  <si>
+    <t>OP_MODE_CFG</t>
+  </si>
+  <si>
+    <t>DAC_CTRL</t>
+  </si>
+  <si>
+    <t>CLK_SOURC_CTRL</t>
+  </si>
+  <si>
+    <t>CCD_2_WD_2_CFG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +712,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Typewriter"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -677,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -735,42 +946,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,17 +964,44 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +1012,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,6 +1043,690 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AVS COMM Registers Named"/>
+      <sheetName val="AVS COMM Registers"/>
+      <sheetName val="AVS COMM Registers TABLE"/>
+      <sheetName val="NIOS defines"/>
+      <sheetName val="Register VHDL Types"/>
+      <sheetName val="Register VHDL Types TABLE"/>
+      <sheetName val="Register VHDL RMAP RD Case"/>
+      <sheetName val="Register VHDL RMAP WR Case"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>Signal</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>Range</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>spw_lnkcfg_disconnect</v>
+          </cell>
+          <cell r="K3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>spw_lnkcfg_linkstart</v>
+          </cell>
+          <cell r="K4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>spw_lnkcfg_autostart</v>
+          </cell>
+          <cell r="K5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>spw_link_running</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>spw_link_connecting</v>
+          </cell>
+          <cell r="K8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>spw_link_started</v>
+          </cell>
+          <cell r="K9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>spw_err_disconnect</v>
+          </cell>
+          <cell r="K11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>spw_err_parity</v>
+          </cell>
+          <cell r="K12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13" t="str">
+            <v>spw_err_escape</v>
+          </cell>
+          <cell r="K13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14" t="str">
+            <v>spw_err_credit</v>
+          </cell>
+          <cell r="K14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16" t="str">
+            <v>spw_lnkcfg_txdivcnt</v>
+          </cell>
+          <cell r="K16">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17" t="str">
+            <v>timecode_time</v>
+          </cell>
+          <cell r="K17">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18" t="str">
+            <v>timecode_control</v>
+          </cell>
+          <cell r="K18">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19" t="str">
+            <v>timecode_clear</v>
+          </cell>
+          <cell r="K19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21" t="str">
+            <v>fee_machine_clear</v>
+          </cell>
+          <cell r="K21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22" t="str">
+            <v>fee_machine_stop</v>
+          </cell>
+          <cell r="K22">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23" t="str">
+            <v>fee_machine_start</v>
+          </cell>
+          <cell r="K23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>fee_masking_en</v>
+          </cell>
+          <cell r="K24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26" t="str">
+            <v>windowing_right_buffer_empty</v>
+          </cell>
+          <cell r="K26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27" t="str">
+            <v>windowing_left_buffer_empty</v>
+          </cell>
+          <cell r="K27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29" t="str">
+            <v>rmap_target_logical_addr</v>
+          </cell>
+          <cell r="K29">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30" t="str">
+            <v>rmap_target_key</v>
+          </cell>
+          <cell r="K30">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K31" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32" t="str">
+            <v>rmap_stat_command_received</v>
+          </cell>
+          <cell r="K32">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33" t="str">
+            <v>rmap_stat_write_requested</v>
+          </cell>
+          <cell r="K33">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34" t="str">
+            <v>rmap_stat_write_authorized</v>
+          </cell>
+          <cell r="K34">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35" t="str">
+            <v>rmap_stat_read_requested</v>
+          </cell>
+          <cell r="K35">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36" t="str">
+            <v>rmap_stat_read_authorized</v>
+          </cell>
+          <cell r="K36">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37" t="str">
+            <v>rmap_stat_reply_sended</v>
+          </cell>
+          <cell r="K37">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38" t="str">
+            <v>rmap_stat_discarded_package</v>
+          </cell>
+          <cell r="K38">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40" t="str">
+            <v>rmap_err_early_eop</v>
+          </cell>
+          <cell r="K40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41" t="str">
+            <v>rmap_err_eep</v>
+          </cell>
+          <cell r="K41">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42" t="str">
+            <v>rmap_err_header_crc</v>
+          </cell>
+          <cell r="K42">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43" t="str">
+            <v>rmap_err_unused_packet_type</v>
+          </cell>
+          <cell r="K43">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44" t="str">
+            <v>rmap_err_invalid_command_code</v>
+          </cell>
+          <cell r="K44">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45" t="str">
+            <v>rmap_err_too_much_data</v>
+          </cell>
+          <cell r="K45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46" t="str">
+            <v>rmap_err_invalid_data_crc</v>
+          </cell>
+          <cell r="K46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K47" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48" t="str">
+            <v>rmap_last_write_addr</v>
+          </cell>
+          <cell r="K48">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49" t="str">
+            <v>rmap_last_read_addr</v>
+          </cell>
+          <cell r="K49">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50" t="str">
+            <v>data_pkt_ccd_x_size</v>
+          </cell>
+          <cell r="K50">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51" t="str">
+            <v>data_pkt_ccd_y_size</v>
+          </cell>
+          <cell r="K51">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52" t="str">
+            <v>data_pkt_data_y_size</v>
+          </cell>
+          <cell r="K52">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53" t="str">
+            <v>data_pkt_overscan_y_size</v>
+          </cell>
+          <cell r="K53">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54" t="str">
+            <v>data_pkt_packet_length</v>
+          </cell>
+          <cell r="K54">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K55" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56" t="str">
+            <v>data_pkt_fee_mode</v>
+          </cell>
+          <cell r="K56">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57" t="str">
+            <v>data_pkt_ccd_number</v>
+          </cell>
+          <cell r="K57">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K58" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59" t="str">
+            <v>data_pkt_header_length</v>
+          </cell>
+          <cell r="K59">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60" t="str">
+            <v>data_pkt_header_type</v>
+          </cell>
+          <cell r="K60">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61" t="str">
+            <v>data_pkt_header_frame_counter</v>
+          </cell>
+          <cell r="K61">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62" t="str">
+            <v>data_pkt_header_sequence_counter</v>
+          </cell>
+          <cell r="K62">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63" t="str">
+            <v>data_pkt_line_delay</v>
+          </cell>
+          <cell r="K63">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K64" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65" t="str">
+            <v>data_pkt_column_delay</v>
+          </cell>
+          <cell r="K65">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K66" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67" t="str">
+            <v>data_pkt_adc_delay</v>
+          </cell>
+          <cell r="K67">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K68" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69" t="str">
+            <v>comm_rmap_write_command_en</v>
+          </cell>
+          <cell r="K69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K70" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71" t="str">
+            <v>comm_right_buffer_empty_en</v>
+          </cell>
+          <cell r="K71">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72" t="str">
+            <v>comm_left_buffer_empty_en</v>
+          </cell>
+          <cell r="K72">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K73" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74" t="str">
+            <v>comm_global_irq_en</v>
+          </cell>
+          <cell r="K74">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="E75" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K75" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="E76" t="str">
+            <v>comm_rmap_write_command_flag</v>
+          </cell>
+          <cell r="K76">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="E77" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K77" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="E78" t="str">
+            <v>comm_buffer_empty_flag</v>
+          </cell>
+          <cell r="K78">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="E79" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K79" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="E80" t="str">
+            <v>comm_rmap_write_command_flag_clear</v>
+          </cell>
+          <cell r="K80">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="E81" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K81" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="E82" t="str">
+            <v>comm_buffer_empty_flag_clear</v>
+          </cell>
+          <cell r="K82">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="E83" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K83" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1112,79 +2014,79 @@
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
@@ -1390,38 +2292,38 @@
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
       <c r="AE6" s="15">
         <v>0</v>
       </c>
@@ -1439,38 +2341,38 @@
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="33" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
       <c r="AE7" s="14" t="s">
         <v>98</v>
       </c>
@@ -1488,40 +2390,40 @@
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
@@ -1866,67 +2768,67 @@
       <c r="N14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="29"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="41"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
@@ -2275,28 +3177,28 @@
       <c r="N21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="23" t="s">
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="AF21" s="25"/>
+      <c r="AF21" s="37"/>
       <c r="AG21" s="14" t="s">
         <v>105</v>
       </c>
@@ -2308,40 +3210,40 @@
       <c r="B23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
@@ -2789,40 +3691,40 @@
       <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
@@ -3107,79 +4009,79 @@
       <c r="B35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="29"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="41"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
@@ -3476,24 +4378,24 @@
       <c r="B42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="29"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
       <c r="S42" s="14" t="s">
         <v>41</v>
       </c>
@@ -3506,61 +4408,61 @@
       <c r="V42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="23" t="s">
+      <c r="W42" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="23" t="s">
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="24"/>
-      <c r="AH42" s="25"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="37"/>
     </row>
     <row r="44" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
     </row>
     <row r="45" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
@@ -3845,79 +4747,79 @@
       <c r="B49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="29"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="40"/>
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="40"/>
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="41"/>
     </row>
     <row r="51" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
@@ -4214,24 +5116,24 @@
       <c r="B56" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="29"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="41"/>
       <c r="S56" s="14" t="s">
         <v>41</v>
       </c>
@@ -4244,61 +5146,61 @@
       <c r="V56" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W56" s="23" t="s">
+      <c r="W56" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="24"/>
-      <c r="AB56" s="25"/>
-      <c r="AC56" s="23" t="s">
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="24"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="25"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="38"/>
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="37"/>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AH58" s="26"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="29"/>
+      <c r="AH58" s="29"/>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
@@ -4583,79 +5485,79 @@
       <c r="B63" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="28"/>
-      <c r="AE63" s="28"/>
-      <c r="AF63" s="28"/>
-      <c r="AG63" s="28"/>
-      <c r="AH63" s="29"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
+      <c r="AB63" s="40"/>
+      <c r="AC63" s="40"/>
+      <c r="AD63" s="40"/>
+      <c r="AE63" s="40"/>
+      <c r="AF63" s="40"/>
+      <c r="AG63" s="40"/>
+      <c r="AH63" s="41"/>
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="26"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="26"/>
-      <c r="Z65" s="26"/>
-      <c r="AA65" s="26"/>
-      <c r="AB65" s="26"/>
-      <c r="AC65" s="26"/>
-      <c r="AD65" s="26"/>
-      <c r="AE65" s="26"/>
-      <c r="AF65" s="26"/>
-      <c r="AG65" s="26"/>
-      <c r="AH65" s="26"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+      <c r="AF65" s="29"/>
+      <c r="AG65" s="29"/>
+      <c r="AH65" s="29"/>
     </row>
     <row r="66" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
@@ -4952,24 +5854,24 @@
       <c r="B70" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="29"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="41"/>
       <c r="S70" s="14" t="s">
         <v>41</v>
       </c>
@@ -4982,61 +5884,61 @@
       <c r="V70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W70" s="23" t="s">
+      <c r="W70" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="X70" s="24"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="24"/>
-      <c r="AB70" s="25"/>
-      <c r="AC70" s="23" t="s">
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="38"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="25"/>
+      <c r="AD70" s="38"/>
+      <c r="AE70" s="38"/>
+      <c r="AF70" s="38"/>
+      <c r="AG70" s="38"/>
+      <c r="AH70" s="37"/>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="26"/>
-      <c r="U72" s="26"/>
-      <c r="V72" s="26"/>
-      <c r="W72" s="26"/>
-      <c r="X72" s="26"/>
-      <c r="Y72" s="26"/>
-      <c r="Z72" s="26"/>
-      <c r="AA72" s="26"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="26"/>
-      <c r="AD72" s="26"/>
-      <c r="AE72" s="26"/>
-      <c r="AF72" s="26"/>
-      <c r="AG72" s="26"/>
-      <c r="AH72" s="26"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="29"/>
+      <c r="AF72" s="29"/>
+      <c r="AG72" s="29"/>
+      <c r="AH72" s="29"/>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
@@ -5321,79 +6223,79 @@
       <c r="B77" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
-      <c r="AE77" s="28"/>
-      <c r="AF77" s="28"/>
-      <c r="AG77" s="28"/>
-      <c r="AH77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
+      <c r="AA77" s="40"/>
+      <c r="AB77" s="40"/>
+      <c r="AC77" s="40"/>
+      <c r="AD77" s="40"/>
+      <c r="AE77" s="40"/>
+      <c r="AF77" s="40"/>
+      <c r="AG77" s="40"/>
+      <c r="AH77" s="41"/>
     </row>
     <row r="79" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
-      <c r="U79" s="26"/>
-      <c r="V79" s="26"/>
-      <c r="W79" s="26"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="26"/>
-      <c r="AA79" s="26"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="26"/>
-      <c r="AD79" s="26"/>
-      <c r="AE79" s="26"/>
-      <c r="AF79" s="26"/>
-      <c r="AG79" s="26"/>
-      <c r="AH79" s="26"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="29"/>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="29"/>
+      <c r="AG79" s="29"/>
+      <c r="AH79" s="29"/>
     </row>
     <row r="80" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
@@ -5690,24 +6592,24 @@
       <c r="B84" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="29"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="41"/>
       <c r="S84" s="14" t="s">
         <v>41</v>
       </c>
@@ -5720,61 +6622,61 @@
       <c r="V84" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W84" s="23" t="s">
+      <c r="W84" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="23" t="s">
+      <c r="X84" s="38"/>
+      <c r="Y84" s="38"/>
+      <c r="Z84" s="38"/>
+      <c r="AA84" s="38"/>
+      <c r="AB84" s="37"/>
+      <c r="AC84" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="AD84" s="24"/>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="25"/>
+      <c r="AD84" s="38"/>
+      <c r="AE84" s="38"/>
+      <c r="AF84" s="38"/>
+      <c r="AG84" s="38"/>
+      <c r="AH84" s="37"/>
     </row>
     <row r="86" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="26"/>
-      <c r="T86" s="26"/>
-      <c r="U86" s="26"/>
-      <c r="V86" s="26"/>
-      <c r="W86" s="26"/>
-      <c r="X86" s="26"/>
-      <c r="Y86" s="26"/>
-      <c r="Z86" s="26"/>
-      <c r="AA86" s="26"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="26"/>
-      <c r="AD86" s="26"/>
-      <c r="AE86" s="26"/>
-      <c r="AF86" s="26"/>
-      <c r="AG86" s="26"/>
-      <c r="AH86" s="26"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="X86" s="29"/>
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="29"/>
+      <c r="AA86" s="29"/>
+      <c r="AB86" s="29"/>
+      <c r="AC86" s="29"/>
+      <c r="AD86" s="29"/>
+      <c r="AE86" s="29"/>
+      <c r="AF86" s="29"/>
+      <c r="AG86" s="29"/>
+      <c r="AH86" s="29"/>
     </row>
     <row r="87" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
@@ -6187,12 +7089,12 @@
       <c r="Z91" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AA91" s="23" t="s">
+      <c r="AA91" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="AB91" s="24"/>
-      <c r="AC91" s="24"/>
-      <c r="AD91" s="25"/>
+      <c r="AB91" s="38"/>
+      <c r="AC91" s="38"/>
+      <c r="AD91" s="37"/>
       <c r="AE91" s="14" t="s">
         <v>41</v>
       </c>
@@ -6210,40 +7112,40 @@
       <c r="B93" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="26"/>
-      <c r="V93" s="26"/>
-      <c r="W93" s="26"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="26"/>
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="26"/>
-      <c r="AD93" s="26"/>
-      <c r="AE93" s="26"/>
-      <c r="AF93" s="26"/>
-      <c r="AG93" s="26"/>
-      <c r="AH93" s="26"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
+      <c r="AE93" s="29"/>
+      <c r="AF93" s="29"/>
+      <c r="AG93" s="29"/>
+      <c r="AH93" s="29"/>
     </row>
     <row r="94" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
@@ -6678,49 +7580,49 @@
       <c r="AF98" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AG98" s="23" t="s">
+      <c r="AG98" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="AH98" s="25"/>
+      <c r="AH98" s="37"/>
     </row>
     <row r="100" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="26"/>
-      <c r="R100" s="26"/>
-      <c r="S100" s="26"/>
-      <c r="T100" s="26"/>
-      <c r="U100" s="26"/>
-      <c r="V100" s="26"/>
-      <c r="W100" s="26"/>
-      <c r="X100" s="26"/>
-      <c r="Y100" s="26"/>
-      <c r="Z100" s="26"/>
-      <c r="AA100" s="26"/>
-      <c r="AB100" s="26"/>
-      <c r="AC100" s="26"/>
-      <c r="AD100" s="26"/>
-      <c r="AE100" s="26"/>
-      <c r="AF100" s="26"/>
-      <c r="AG100" s="26"/>
-      <c r="AH100" s="26"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
+      <c r="X100" s="29"/>
+      <c r="Y100" s="29"/>
+      <c r="Z100" s="29"/>
+      <c r="AA100" s="29"/>
+      <c r="AB100" s="29"/>
+      <c r="AC100" s="29"/>
+      <c r="AD100" s="29"/>
+      <c r="AE100" s="29"/>
+      <c r="AF100" s="29"/>
+      <c r="AG100" s="29"/>
+      <c r="AH100" s="29"/>
     </row>
     <row r="101" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
@@ -7168,40 +8070,40 @@
       <c r="B107" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="26"/>
-      <c r="W107" s="26"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
-      <c r="Z107" s="26"/>
-      <c r="AA107" s="26"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="26"/>
-      <c r="AD107" s="26"/>
-      <c r="AE107" s="26"/>
-      <c r="AF107" s="26"/>
-      <c r="AG107" s="26"/>
-      <c r="AH107" s="26"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29"/>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="29"/>
+      <c r="AE107" s="29"/>
+      <c r="AF107" s="29"/>
+      <c r="AG107" s="29"/>
+      <c r="AH107" s="29"/>
     </row>
     <row r="108" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
@@ -7649,80 +8551,80 @@
       <c r="B114" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="41"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
-      <c r="R114" s="41"/>
-      <c r="S114" s="41"/>
-      <c r="T114" s="41"/>
-      <c r="U114" s="41"/>
-      <c r="V114" s="41"/>
-      <c r="W114" s="41"/>
-      <c r="X114" s="41"/>
-      <c r="Y114" s="41"/>
-      <c r="Z114" s="41"/>
-      <c r="AA114" s="41"/>
-      <c r="AB114" s="41"/>
-      <c r="AC114" s="41"/>
-      <c r="AD114" s="41"/>
-      <c r="AE114" s="41"/>
-      <c r="AF114" s="41"/>
-      <c r="AG114" s="41"/>
-      <c r="AH114" s="41"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="33"/>
+      <c r="Q114" s="33"/>
+      <c r="R114" s="33"/>
+      <c r="S114" s="33"/>
+      <c r="T114" s="33"/>
+      <c r="U114" s="33"/>
+      <c r="V114" s="33"/>
+      <c r="W114" s="33"/>
+      <c r="X114" s="33"/>
+      <c r="Y114" s="33"/>
+      <c r="Z114" s="33"/>
+      <c r="AA114" s="33"/>
+      <c r="AB114" s="33"/>
+      <c r="AC114" s="33"/>
+      <c r="AD114" s="33"/>
+      <c r="AE114" s="33"/>
+      <c r="AF114" s="33"/>
+      <c r="AG114" s="33"/>
+      <c r="AH114" s="33"/>
     </row>
     <row r="115" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B115" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="35" t="str">
+      <c r="C115" s="23" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C108,2))+1,2))</f>
         <v>0x50</v>
       </c>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="36"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="36"/>
-      <c r="P115" s="36"/>
-      <c r="Q115" s="36"/>
-      <c r="R115" s="36"/>
-      <c r="S115" s="36"/>
-      <c r="T115" s="36"/>
-      <c r="U115" s="36"/>
-      <c r="V115" s="36"/>
-      <c r="W115" s="36"/>
-      <c r="X115" s="36"/>
-      <c r="Y115" s="36"/>
-      <c r="Z115" s="36"/>
-      <c r="AA115" s="36"/>
-      <c r="AB115" s="36"/>
-      <c r="AC115" s="36"/>
-      <c r="AD115" s="36"/>
-      <c r="AE115" s="36"/>
-      <c r="AF115" s="36"/>
-      <c r="AG115" s="36"/>
-      <c r="AH115" s="37"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="24"/>
+      <c r="O115" s="24"/>
+      <c r="P115" s="24"/>
+      <c r="Q115" s="24"/>
+      <c r="R115" s="24"/>
+      <c r="S115" s="24"/>
+      <c r="T115" s="24"/>
+      <c r="U115" s="24"/>
+      <c r="V115" s="24"/>
+      <c r="W115" s="24"/>
+      <c r="X115" s="24"/>
+      <c r="Y115" s="24"/>
+      <c r="Z115" s="24"/>
+      <c r="AA115" s="24"/>
+      <c r="AB115" s="24"/>
+      <c r="AC115" s="24"/>
+      <c r="AD115" s="24"/>
+      <c r="AE115" s="24"/>
+      <c r="AF115" s="24"/>
+      <c r="AG115" s="24"/>
+      <c r="AH115" s="25"/>
     </row>
     <row r="116" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B116" s="18"/>
@@ -8018,10 +8920,10 @@
       <c r="AF118" s="21">
         <v>0</v>
       </c>
-      <c r="AG118" s="35" t="s">
+      <c r="AG118" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AH118" s="37"/>
+      <c r="AH118" s="25"/>
     </row>
     <row r="119" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
@@ -8117,89 +9019,89 @@
       <c r="AF119" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AG119" s="38" t="s">
+      <c r="AG119" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AH119" s="40"/>
+      <c r="AH119" s="28"/>
     </row>
     <row r="121" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C121" s="41" t="s">
+      <c r="C121" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="41"/>
-      <c r="O121" s="41"/>
-      <c r="P121" s="41"/>
-      <c r="Q121" s="41"/>
-      <c r="R121" s="41"/>
-      <c r="S121" s="41"/>
-      <c r="T121" s="41"/>
-      <c r="U121" s="41"/>
-      <c r="V121" s="41"/>
-      <c r="W121" s="41"/>
-      <c r="X121" s="41"/>
-      <c r="Y121" s="41"/>
-      <c r="Z121" s="41"/>
-      <c r="AA121" s="41"/>
-      <c r="AB121" s="41"/>
-      <c r="AC121" s="41"/>
-      <c r="AD121" s="41"/>
-      <c r="AE121" s="41"/>
-      <c r="AF121" s="41"/>
-      <c r="AG121" s="41"/>
-      <c r="AH121" s="41"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
+      <c r="L121" s="33"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="33"/>
+      <c r="O121" s="33"/>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="33"/>
+      <c r="R121" s="33"/>
+      <c r="S121" s="33"/>
+      <c r="T121" s="33"/>
+      <c r="U121" s="33"/>
+      <c r="V121" s="33"/>
+      <c r="W121" s="33"/>
+      <c r="X121" s="33"/>
+      <c r="Y121" s="33"/>
+      <c r="Z121" s="33"/>
+      <c r="AA121" s="33"/>
+      <c r="AB121" s="33"/>
+      <c r="AC121" s="33"/>
+      <c r="AD121" s="33"/>
+      <c r="AE121" s="33"/>
+      <c r="AF121" s="33"/>
+      <c r="AG121" s="33"/>
+      <c r="AH121" s="33"/>
     </row>
     <row r="122" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B122" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C122" s="35" t="str">
+      <c r="C122" s="23" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C115,2))+1,2))</f>
         <v>0x51</v>
       </c>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
-      <c r="L122" s="36"/>
-      <c r="M122" s="36"/>
-      <c r="N122" s="36"/>
-      <c r="O122" s="36"/>
-      <c r="P122" s="36"/>
-      <c r="Q122" s="36"/>
-      <c r="R122" s="36"/>
-      <c r="S122" s="36"/>
-      <c r="T122" s="36"/>
-      <c r="U122" s="36"/>
-      <c r="V122" s="36"/>
-      <c r="W122" s="36"/>
-      <c r="X122" s="36"/>
-      <c r="Y122" s="36"/>
-      <c r="Z122" s="36"/>
-      <c r="AA122" s="36"/>
-      <c r="AB122" s="36"/>
-      <c r="AC122" s="36"/>
-      <c r="AD122" s="36"/>
-      <c r="AE122" s="36"/>
-      <c r="AF122" s="36"/>
-      <c r="AG122" s="36"/>
-      <c r="AH122" s="37"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="24"/>
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="25"/>
     </row>
     <row r="123" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
@@ -8489,12 +9391,12 @@
       <c r="AD125" s="21">
         <v>0</v>
       </c>
-      <c r="AE125" s="35" t="s">
+      <c r="AE125" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AF125" s="36"/>
-      <c r="AG125" s="36"/>
-      <c r="AH125" s="37"/>
+      <c r="AF125" s="24"/>
+      <c r="AG125" s="24"/>
+      <c r="AH125" s="25"/>
     </row>
     <row r="126" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B126" s="18" t="s">
@@ -8584,59 +9486,41 @@
       <c r="AD126" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AE126" s="38" t="s">
+      <c r="AE126" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="AF126" s="39"/>
-      <c r="AG126" s="39"/>
-      <c r="AH126" s="40"/>
+      <c r="AF126" s="27"/>
+      <c r="AG126" s="27"/>
+      <c r="AH126" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C122:AH122"/>
-    <mergeCell ref="AE125:AH125"/>
-    <mergeCell ref="AE126:AH126"/>
-    <mergeCell ref="C107:AH107"/>
-    <mergeCell ref="C108:AH108"/>
-    <mergeCell ref="C114:AH114"/>
-    <mergeCell ref="C115:AH115"/>
-    <mergeCell ref="AG118:AH118"/>
-    <mergeCell ref="AG119:AH119"/>
-    <mergeCell ref="C121:AH121"/>
-    <mergeCell ref="C10:AH10"/>
-    <mergeCell ref="C2:AH2"/>
-    <mergeCell ref="O7:AD7"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="O6:AD6"/>
-    <mergeCell ref="C9:AH9"/>
-    <mergeCell ref="C3:AH3"/>
-    <mergeCell ref="C37:AH37"/>
-    <mergeCell ref="C38:AH38"/>
-    <mergeCell ref="C34:AH34"/>
-    <mergeCell ref="C30:AH30"/>
-    <mergeCell ref="C31:AH31"/>
-    <mergeCell ref="C100:AH100"/>
-    <mergeCell ref="C101:AH101"/>
-    <mergeCell ref="C93:AH93"/>
-    <mergeCell ref="C94:AH94"/>
-    <mergeCell ref="C86:AH86"/>
-    <mergeCell ref="C87:AH87"/>
-    <mergeCell ref="AG98:AH98"/>
-    <mergeCell ref="AG97:AH97"/>
-    <mergeCell ref="AA91:AD91"/>
-    <mergeCell ref="AA90:AD90"/>
-    <mergeCell ref="O14:AH14"/>
-    <mergeCell ref="O13:AH13"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="C35:AH35"/>
-    <mergeCell ref="O20:AD20"/>
-    <mergeCell ref="O21:AD21"/>
-    <mergeCell ref="C23:AH23"/>
-    <mergeCell ref="C24:AH24"/>
-    <mergeCell ref="C16:AH16"/>
-    <mergeCell ref="C17:AH17"/>
+    <mergeCell ref="W84:AB84"/>
+    <mergeCell ref="C79:AH79"/>
+    <mergeCell ref="C72:AH72"/>
+    <mergeCell ref="C84:R84"/>
+    <mergeCell ref="C70:R70"/>
+    <mergeCell ref="W70:AB70"/>
+    <mergeCell ref="AC84:AH84"/>
+    <mergeCell ref="C73:AH73"/>
+    <mergeCell ref="C80:AH80"/>
+    <mergeCell ref="AC70:AH70"/>
+    <mergeCell ref="C76:AH76"/>
+    <mergeCell ref="C77:AH77"/>
+    <mergeCell ref="C83:R83"/>
+    <mergeCell ref="W83:AB83"/>
+    <mergeCell ref="AC83:AH83"/>
+    <mergeCell ref="C63:AH63"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="W69:AB69"/>
+    <mergeCell ref="AC69:AH69"/>
+    <mergeCell ref="W42:AB42"/>
+    <mergeCell ref="W56:AB56"/>
+    <mergeCell ref="C55:R55"/>
+    <mergeCell ref="W55:AB55"/>
+    <mergeCell ref="AC55:AH55"/>
+    <mergeCell ref="AC56:AH56"/>
+    <mergeCell ref="C62:AH62"/>
     <mergeCell ref="C41:R41"/>
     <mergeCell ref="W41:AB41"/>
     <mergeCell ref="AC41:AH41"/>
@@ -8653,32 +9537,50 @@
     <mergeCell ref="C52:AH52"/>
     <mergeCell ref="C58:AH58"/>
     <mergeCell ref="C56:R56"/>
-    <mergeCell ref="C63:AH63"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="W69:AB69"/>
-    <mergeCell ref="AC69:AH69"/>
-    <mergeCell ref="W42:AB42"/>
-    <mergeCell ref="W56:AB56"/>
-    <mergeCell ref="C55:R55"/>
-    <mergeCell ref="W55:AB55"/>
-    <mergeCell ref="AC55:AH55"/>
-    <mergeCell ref="AC56:AH56"/>
-    <mergeCell ref="C62:AH62"/>
-    <mergeCell ref="W84:AB84"/>
-    <mergeCell ref="C79:AH79"/>
-    <mergeCell ref="C72:AH72"/>
-    <mergeCell ref="C84:R84"/>
-    <mergeCell ref="C70:R70"/>
-    <mergeCell ref="W70:AB70"/>
-    <mergeCell ref="AC84:AH84"/>
-    <mergeCell ref="C73:AH73"/>
-    <mergeCell ref="C80:AH80"/>
-    <mergeCell ref="AC70:AH70"/>
-    <mergeCell ref="C76:AH76"/>
-    <mergeCell ref="C77:AH77"/>
-    <mergeCell ref="C83:R83"/>
-    <mergeCell ref="W83:AB83"/>
-    <mergeCell ref="AC83:AH83"/>
+    <mergeCell ref="O14:AH14"/>
+    <mergeCell ref="O13:AH13"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="C35:AH35"/>
+    <mergeCell ref="O20:AD20"/>
+    <mergeCell ref="O21:AD21"/>
+    <mergeCell ref="C23:AH23"/>
+    <mergeCell ref="C24:AH24"/>
+    <mergeCell ref="C16:AH16"/>
+    <mergeCell ref="C17:AH17"/>
+    <mergeCell ref="C100:AH100"/>
+    <mergeCell ref="C101:AH101"/>
+    <mergeCell ref="C93:AH93"/>
+    <mergeCell ref="C94:AH94"/>
+    <mergeCell ref="C86:AH86"/>
+    <mergeCell ref="C87:AH87"/>
+    <mergeCell ref="AG98:AH98"/>
+    <mergeCell ref="AG97:AH97"/>
+    <mergeCell ref="AA91:AD91"/>
+    <mergeCell ref="AA90:AD90"/>
+    <mergeCell ref="C37:AH37"/>
+    <mergeCell ref="C38:AH38"/>
+    <mergeCell ref="C34:AH34"/>
+    <mergeCell ref="C30:AH30"/>
+    <mergeCell ref="C31:AH31"/>
+    <mergeCell ref="C10:AH10"/>
+    <mergeCell ref="C2:AH2"/>
+    <mergeCell ref="O7:AD7"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="O6:AD6"/>
+    <mergeCell ref="C9:AH9"/>
+    <mergeCell ref="C3:AH3"/>
+    <mergeCell ref="C122:AH122"/>
+    <mergeCell ref="AE125:AH125"/>
+    <mergeCell ref="AE126:AH126"/>
+    <mergeCell ref="C107:AH107"/>
+    <mergeCell ref="C108:AH108"/>
+    <mergeCell ref="C114:AH114"/>
+    <mergeCell ref="C115:AH115"/>
+    <mergeCell ref="AG118:AH118"/>
+    <mergeCell ref="AG119:AH119"/>
+    <mergeCell ref="C121:AH121"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8691,7 +9593,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E8" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8746,15 +9648,15 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C3</f>
         <v>0x40</v>
       </c>
-      <c r="C3" s="45" t="str">
+      <c r="C3" s="42" t="str">
         <f>CONCATENATE("x""",RIGHT(B3,LEN(B3)-2),"""")</f>
         <v>x"40"</v>
       </c>
-      <c r="D3" s="42" t="str">
+      <c r="D3" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C2</f>
         <v>ccd_seq_1_config</v>
       </c>
@@ -8788,9 +9690,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AG7</f>
         <v>tri_level_clock_control</v>
@@ -8823,9 +9725,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AF7</f>
         <v>image_clock_direction_control</v>
@@ -8858,9 +9760,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AE7</f>
         <v>register_clock_direction_control</v>
@@ -8893,9 +9795,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="8" t="str">
         <f>'AVS RMAP Config Registers'!O7</f>
         <v>image_clock_transfer_count_control</v>
@@ -8929,9 +9831,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C7</f>
         <v>register_clock_transfer_count_control</v>
@@ -8965,15 +9867,15 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="str">
+      <c r="B9" s="45" t="str">
         <f>'AVS RMAP Config Registers'!C10</f>
         <v>0x41</v>
       </c>
-      <c r="C9" s="43" t="str">
+      <c r="C9" s="45" t="str">
         <f>CONCATENATE("x""",RIGHT(B9,LEN(B9)-2),"""")</f>
         <v>x"41"</v>
       </c>
-      <c r="D9" s="42" t="str">
+      <c r="D9" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C9</f>
         <v>ccd_seq_2_config</v>
       </c>
@@ -9010,9 +9912,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
@@ -9044,15 +9946,15 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="45" t="str">
+      <c r="B11" s="42" t="str">
         <f>'AVS RMAP Config Registers'!C17</f>
         <v>0x42</v>
       </c>
-      <c r="C11" s="45" t="str">
+      <c r="C11" s="42" t="str">
         <f>CONCATENATE("x""",RIGHT(B11,LEN(B11)-2),"""")</f>
         <v>x"42"</v>
       </c>
-      <c r="D11" s="47" t="str">
+      <c r="D11" s="44" t="str">
         <f>'AVS RMAP Config Registers'!C16</f>
         <v>spw_packet_1_config</v>
       </c>
@@ -9086,9 +9988,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AG21</f>
         <v>digitise_control</v>
@@ -9121,9 +10023,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AE21</f>
         <v>ccd_port_data_transmission_selection_control</v>
@@ -9157,9 +10059,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="8" t="str">
         <f>'AVS RMAP Config Registers'!O21</f>
         <v>packet_size_control</v>
@@ -9193,9 +10095,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="8" t="s">
         <v>41</v>
       </c>
@@ -9315,15 +10217,15 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="str">
+      <c r="B18" s="45" t="str">
         <f>'AVS RMAP Config Registers'!C38</f>
         <v>0x45</v>
       </c>
-      <c r="C18" s="43" t="str">
+      <c r="C18" s="45" t="str">
         <f>CONCATENATE("x""",RIGHT(B18,LEN(B18)-2),"""")</f>
         <v>x"45"</v>
       </c>
-      <c r="D18" s="42" t="str">
+      <c r="D18" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C37</f>
         <v>CCD_1_windowing_2_config</v>
       </c>
@@ -9360,9 +10262,9 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="8" t="str">
         <f>'AVS RMAP Config Registers'!W42</f>
         <v>window_height_ccd1</v>
@@ -9396,9 +10298,9 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="42"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="8" t="s">
         <v>41</v>
       </c>
@@ -9430,9 +10332,9 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C42</f>
         <v>window_list_length_ccd1</v>
@@ -9511,15 +10413,15 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="str">
+      <c r="B23" s="45" t="str">
         <f>'AVS RMAP Config Registers'!C52</f>
         <v>0x47</v>
       </c>
-      <c r="C23" s="43" t="str">
+      <c r="C23" s="45" t="str">
         <f>CONCATENATE("x""",RIGHT(B23,LEN(B23)-2),"""")</f>
         <v>x"47"</v>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C51</f>
         <v>CCD_2_windowing_2_config</v>
       </c>
@@ -9556,9 +10458,9 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="8" t="str">
         <f>'AVS RMAP Config Registers'!W56</f>
         <v>window_height_ccd2</v>
@@ -9592,9 +10494,9 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="8" t="s">
         <v>41</v>
       </c>
@@ -9626,9 +10528,9 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C56</f>
         <v>window_list_length_ccd2</v>
@@ -9707,15 +10609,15 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="str">
+      <c r="B28" s="45" t="str">
         <f>'AVS RMAP Config Registers'!C66</f>
         <v>0x49</v>
       </c>
-      <c r="C28" s="43" t="str">
+      <c r="C28" s="45" t="str">
         <f>CONCATENATE("x""",RIGHT(B28,LEN(B28)-2),"""")</f>
         <v>x"49"</v>
       </c>
-      <c r="D28" s="42" t="str">
+      <c r="D28" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C65</f>
         <v>CCD_3_windowing_2_config</v>
       </c>
@@ -9752,9 +10654,9 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="8" t="str">
         <f>'AVS RMAP Config Registers'!W70</f>
         <v>window_height_ccd3</v>
@@ -9788,9 +10690,9 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="42"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="8" t="s">
         <v>41</v>
       </c>
@@ -9822,9 +10724,9 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="42"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C70</f>
         <v>window_list_length_ccd3</v>
@@ -9903,15 +10805,15 @@
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="str">
+      <c r="B33" s="45" t="str">
         <f>'AVS RMAP Config Registers'!C80</f>
         <v>0x4B</v>
       </c>
-      <c r="C33" s="43" t="str">
+      <c r="C33" s="45" t="str">
         <f>CONCATENATE("x""",RIGHT(B33,LEN(B33)-2),"""")</f>
         <v>x"4B"</v>
       </c>
-      <c r="D33" s="42" t="str">
+      <c r="D33" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C79</f>
         <v>CCD_4_windowing_2_config</v>
       </c>
@@ -9948,9 +10850,9 @@
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="42"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="8" t="str">
         <f>'AVS RMAP Config Registers'!W84</f>
         <v>window_height_ccd4</v>
@@ -9984,9 +10886,9 @@
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="42"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="8" t="s">
         <v>41</v>
       </c>
@@ -10018,9 +10920,9 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="42"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="8" t="str">
         <f>'AVS RMAP Config Registers'!C84</f>
         <v>window_list_length_ccd4</v>
@@ -10054,15 +10956,15 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="42" t="str">
+      <c r="B37" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C87</f>
         <v>0x4C</v>
       </c>
-      <c r="C37" s="42" t="str">
+      <c r="C37" s="47" t="str">
         <f>CONCATENATE("x""",RIGHT(B37,LEN(B37)-2),"""")</f>
         <v>x"4C"</v>
       </c>
-      <c r="D37" s="42" t="str">
+      <c r="D37" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C86</f>
         <v>operation_mode_config</v>
       </c>
@@ -10097,9 +10999,9 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AA91</f>
         <v>mode_selection_control</v>
@@ -10133,9 +11035,9 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="8" t="s">
         <v>41</v>
       </c>
@@ -10167,15 +11069,15 @@
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="42" t="str">
+      <c r="B40" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C94</f>
         <v>0x4D</v>
       </c>
-      <c r="C40" s="42" t="str">
+      <c r="C40" s="47" t="str">
         <f>CONCATENATE("x""",RIGHT(B40,LEN(B40)-2),"""")</f>
         <v>x"4D"</v>
       </c>
-      <c r="D40" s="42" t="str">
+      <c r="D40" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C93</f>
         <v>sync_config</v>
       </c>
@@ -10212,9 +11114,9 @@
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="8" t="str">
         <f>'AVS RMAP Config Registers'!AF98</f>
         <v>self_trigger_control</v>
@@ -10247,9 +11149,9 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="8" t="s">
         <v>41</v>
       </c>
@@ -10367,15 +11269,15 @@
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="42" t="str">
+      <c r="B45" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C115</f>
         <v>0x50</v>
       </c>
-      <c r="C45" s="42" t="str">
+      <c r="C45" s="47" t="str">
         <f>CONCATENATE("x""",RIGHT(B45,LEN(B45)-2),"""")</f>
         <v>x"50"</v>
       </c>
-      <c r="D45" s="42" t="str">
+      <c r="D45" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C114</f>
         <v>frame_number</v>
       </c>
@@ -10412,9 +11314,9 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="8" t="s">
         <v>41</v>
       </c>
@@ -10446,15 +11348,15 @@
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="42" t="str">
+      <c r="B47" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C122</f>
         <v>0x51</v>
       </c>
-      <c r="C47" s="42" t="str">
+      <c r="C47" s="47" t="str">
         <f>CONCATENATE("x""",RIGHT(B47,LEN(B47)-2),"""")</f>
         <v>x"51"</v>
       </c>
-      <c r="D47" s="42" t="str">
+      <c r="D47" s="47" t="str">
         <f>'AVS RMAP Config Registers'!C121</f>
         <v>current_mode</v>
       </c>
@@ -10491,9 +11393,9 @@
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="8" t="s">
         <v>41</v>
       </c>
@@ -10526,6 +11428,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="B9:B10"/>
@@ -10535,30 +11461,6 @@
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10566,6 +11468,2062 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617C3FFA-B5A6-4DC4-9E4F-2D92351DA0D9}">
+  <dimension ref="A2:N101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.88671875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="49" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="49" customWidth="1"/>
+    <col min="9" max="10" width="12.109375" style="49" customWidth="1"/>
+    <col min="11" max="11" width="46.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D3</f>
+        <v>ccd_seq_1_config</v>
+      </c>
+      <c r="C3" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B3,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x40</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="49" t="str">
+        <f>CONCATENATE(G3,H3,I3)</f>
+        <v>COMM_RMAPCCD_SEQ_1_CFG_REG_OFST</v>
+      </c>
+      <c r="L3" s="49">
+        <f>LEN(K3)</f>
+        <v>31</v>
+      </c>
+      <c r="N3" s="50" t="str">
+        <f>CONCATENATE("#define ",K3, REPT(" ",32 - LEN(K3))," ",C3)</f>
+        <v>#define COMM_RMAPCCD_SEQ_1_CFG_REG_OFST  0x40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D9</f>
+        <v>ccd_seq_2_config</v>
+      </c>
+      <c r="C4" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B4,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x41</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="49" t="str">
+        <f t="shared" ref="K4:K20" si="0">CONCATENATE(G4,H4,I4)</f>
+        <v>COMM_RMAPCCD_SEQ_2_CFG_REG_OFST</v>
+      </c>
+      <c r="L4" s="49">
+        <f t="shared" ref="L4:L20" si="1">LEN(K4)</f>
+        <v>31</v>
+      </c>
+      <c r="N4" s="50" t="str">
+        <f t="shared" ref="N4:N20" si="2">CONCATENATE("#define ",K4, REPT(" ",32 - LEN(K4))," ",C4)</f>
+        <v>#define COMM_RMAPCCD_SEQ_2_CFG_REG_OFST  0x41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D11</f>
+        <v>spw_packet_1_config</v>
+      </c>
+      <c r="C5" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B5,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x42</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPSPW_PKT_1_CFG_REG_OFST</v>
+      </c>
+      <c r="L5" s="49">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="N5" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPSPW_PKT_1_CFG_REG_OFST  0x42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D16</f>
+        <v>spw_packet_2_config</v>
+      </c>
+      <c r="C6" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B6,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x43</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPSPW_PKT_2_CFG_REG_OFST</v>
+      </c>
+      <c r="L6" s="49">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="N6" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPSPW_PKT_2_CFG_REG_OFST  0x43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D17</f>
+        <v>CCD_1_windowing_1_config</v>
+      </c>
+      <c r="C7" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B7,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x44</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCCD_1_WD_1_CFG_REG_OFST</v>
+      </c>
+      <c r="L7" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N7" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCCD_1_WD_1_CFG_REG_OFST 0x44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D18</f>
+        <v>CCD_1_windowing_2_config</v>
+      </c>
+      <c r="C8" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B8,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x45</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCCD_1_WD_2_CFG_REG_OFST</v>
+      </c>
+      <c r="L8" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N8" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCCD_1_WD_2_CFG_REG_OFST 0x45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D22</f>
+        <v>CCD_2_windowing_1_config</v>
+      </c>
+      <c r="C9" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B9,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x46</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCCD_2_WD_1_CFG_REG_OFST</v>
+      </c>
+      <c r="L9" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N9" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCCD_2_WD_1_CFG_REG_OFST 0x46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D23</f>
+        <v>CCD_2_windowing_2_config</v>
+      </c>
+      <c r="C10" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B10,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x47</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCCD_2_WD_2_CFG_REG_OFST</v>
+      </c>
+      <c r="L10" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N10" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCCD_2_WD_2_CFG_REG_OFST 0x47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D27</f>
+        <v>CCD_3_windowing_1_config</v>
+      </c>
+      <c r="C11" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B11,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x48</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCCD_3_WD_1_CFG_REG_OFST</v>
+      </c>
+      <c r="L11" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N11" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCCD_3_WD_1_CFG_REG_OFST 0x48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D28</f>
+        <v>CCD_3_windowing_2_config</v>
+      </c>
+      <c r="C12" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B12,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x49</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCCD_3_WD_2_CFG_REG_OFST</v>
+      </c>
+      <c r="L12" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N12" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCCD_3_WD_2_CFG_REG_OFST 0x49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D32</f>
+        <v>CCD_4_windowing_1_config</v>
+      </c>
+      <c r="C13" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B13,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x4A</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCCD_4_WD_1_CFG_REG_OFST</v>
+      </c>
+      <c r="L13" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N13" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCCD_4_WD_1_CFG_REG_OFST 0x4A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D33</f>
+        <v>CCD_4_windowing_2_config</v>
+      </c>
+      <c r="C14" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B14,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x4B</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCCD_4_WD_2_CFG_REG_OFST</v>
+      </c>
+      <c r="L14" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N14" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCCD_4_WD_2_CFG_REG_OFST 0x4B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D37</f>
+        <v>operation_mode_config</v>
+      </c>
+      <c r="C15" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B15,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x4C</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPOP_MODE_CFG_REG_OFST</v>
+      </c>
+      <c r="L15" s="49">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="N15" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPOP_MODE_CFG_REG_OFST    0x4C</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D40</f>
+        <v>sync_config</v>
+      </c>
+      <c r="C16" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B16,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x4D</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPSYNC_CFG_REG_OFST</v>
+      </c>
+      <c r="L16" s="49">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="N16" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPSYNC_CFG_REG_OFST       0x4D</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D43</f>
+        <v>dac_control</v>
+      </c>
+      <c r="C17" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B17,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x4E</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPDAC_CTRL_REG_OFST</v>
+      </c>
+      <c r="L17" s="49">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="N17" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPDAC_CTRL_REG_OFST       0x4E</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D44</f>
+        <v>clock_source_control</v>
+      </c>
+      <c r="C18" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B18,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x4F</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCLK_SOURC_CTRL_REG_OFST</v>
+      </c>
+      <c r="L18" s="49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N18" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCLK_SOURC_CTRL_REG_OFST 0x4F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D45</f>
+        <v>frame_number</v>
+      </c>
+      <c r="C19" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B19,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x50</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPFRAME_NUMBER_REG_OFST</v>
+      </c>
+      <c r="L19" s="49">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N19" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPFRAME_NUMBER_REG_OFST   0x50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!D47</f>
+        <v>current_mode</v>
+      </c>
+      <c r="C20" s="49" t="str">
+        <f>INDEX('AVS RMAP Config Registers TABLE'!$B$2:$B$66,MATCH(B20,'AVS RMAP Config Registers TABLE'!$D$2:$D$66,0))</f>
+        <v>0x51</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>COMM_RMAPCURRENT_MODE_REG_OFST</v>
+      </c>
+      <c r="L20" s="49">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N20" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>#define COMM_RMAPCURRENT_MODE_REG_OFST   0x51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="49"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="N22" s="48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N23" s="50"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E4</f>
+        <v>tri_level_clock_control</v>
+      </c>
+      <c r="C24" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B24,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="49">
+        <v>1</v>
+      </c>
+      <c r="E24" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B24,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="49" t="str">
+        <f t="shared" ref="K23:K86" si="3">CONCATENATE(G24,H24,I24)</f>
+        <v>COMM_RMAP_TRI_LV_CLK_CTRL_MSK</v>
+      </c>
+      <c r="L24" s="49">
+        <f t="shared" ref="L23:L92" si="4">LEN(K24)</f>
+        <v>29</v>
+      </c>
+      <c r="N24" s="50" t="str">
+        <f>CONCATENATE("#define ",K24, REPT(" ",32 - LEN(K24))," ","(", D24," &lt;&lt; ", E24,")")</f>
+        <v>#define COMM_RMAP_TRI_LV_CLK_CTRL_MSK    (1 &lt;&lt; 1)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E5</f>
+        <v>image_clock_direction_control</v>
+      </c>
+      <c r="C25" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B25,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="49">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B25,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>2</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="49" t="str">
+        <f t="shared" ref="K25:K63" si="5">CONCATENATE(G25,H25,I25)</f>
+        <v>COMM_RMAP_IMGCLK_DIR_CTRL_MSK</v>
+      </c>
+      <c r="L25" s="49">
+        <f t="shared" ref="L25:L63" si="6">LEN(K25)</f>
+        <v>29</v>
+      </c>
+      <c r="N25" s="50" t="str">
+        <f t="shared" ref="N25:N63" si="7">CONCATENATE("#define ",K25, REPT(" ",32 - LEN(K25))," ","(", D25," &lt;&lt; ", E25,")")</f>
+        <v>#define COMM_RMAP_IMGCLK_DIR_CTRL_MSK    (1 &lt;&lt; 2)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E6</f>
+        <v>register_clock_direction_control</v>
+      </c>
+      <c r="C26" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B26,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="49">
+        <v>1</v>
+      </c>
+      <c r="E26" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B26,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>3</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_REGCLK_DIR_CTRL_MSK</v>
+      </c>
+      <c r="L26" s="49">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="N26" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_REGCLK_DIR_CTRL_MSK    (1 &lt;&lt; 3)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E7</f>
+        <v>image_clock_transfer_count_control</v>
+      </c>
+      <c r="C27" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B27,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B27,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>4</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_IMGCLK_TRCNT_CTRL_MSK</v>
+      </c>
+      <c r="L27" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N27" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_IMGCLK_TRCNT_CTRL_MSK  (0xFFFF &lt;&lt; 4)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E8</f>
+        <v>register_clock_transfer_count_control</v>
+      </c>
+      <c r="C28" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B28,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>12</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B28,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>20</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_REGCLK_TRCNT_CTRL_MSK</v>
+      </c>
+      <c r="L28" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N28" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_REGCLK_TRCNT_CTRL_MSK  (0xFFF &lt;&lt; 20)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="50"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E9</f>
+        <v>slow_read_out_pause_count</v>
+      </c>
+      <c r="C30" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B30,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B30,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_SL_RDOUT_PAUSE_CNT_MSK</v>
+      </c>
+      <c r="L30" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N30" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_SL_RDOUT_PAUSE_CNT_MSK (0xFFFFF &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="50"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E12</f>
+        <v>digitise_control</v>
+      </c>
+      <c r="C32" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B32,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="49">
+        <v>1</v>
+      </c>
+      <c r="E32" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B32,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_DIGITISE_CTRL_MSK</v>
+      </c>
+      <c r="L32" s="49">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="N32" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_DIGITISE_CTRL_MSK      (1 &lt;&lt; 1)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E13</f>
+        <v>ccd_port_data_transmission_selection_control</v>
+      </c>
+      <c r="C33" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B33,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B33,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>2</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_CCD_DTRAN_SEL_CTRL_MSK</v>
+      </c>
+      <c r="L33" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N33" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_CCD_DTRAN_SEL_CTRL_MSK (0b11 &lt;&lt; 2)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E14</f>
+        <v>packet_size_control</v>
+      </c>
+      <c r="C34" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B34,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B34,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>4</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_PACKET_SIZE_CTRL_MSK</v>
+      </c>
+      <c r="L34" s="49">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="N34" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_PACKET_SIZE_CTRL_MSK   (0xFFFF &lt;&lt; 4)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="N35" s="50"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E17</f>
+        <v>window_list_pointer_initial_address_ccd1</v>
+      </c>
+      <c r="C36" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B36,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>32</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B36,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WLIST_P_IADDR_CCD1_MSK</v>
+      </c>
+      <c r="L36" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N36" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WLIST_P_IADDR_CCD1_MSK (0xFFFFFFFF &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E18</f>
+        <v>window_width_ccd1</v>
+      </c>
+      <c r="C37" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B37,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B37,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WINDOW_WIDTH_CCD1_MSK</v>
+      </c>
+      <c r="L37" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N37" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WINDOW_WIDTH_CCD1_MSK  (0b111111 &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E19</f>
+        <v>window_height_ccd1</v>
+      </c>
+      <c r="C38" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B38,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B38,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>6</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WINDOW_HEIGHT_CCD1_MSK</v>
+      </c>
+      <c r="L38" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N38" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WINDOW_HEIGHT_CCD1_MSK (0b111111 &lt;&lt; 6)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E21</f>
+        <v>window_list_length_ccd1</v>
+      </c>
+      <c r="C39" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B39,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B39,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>16</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WLIST_LENGTH_CCD1_MSK</v>
+      </c>
+      <c r="L39" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N39" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WLIST_LENGTH_CCD1_MSK  (0xFFFF &lt;&lt; 16)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="49"/>
+      <c r="N40" s="50"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E22</f>
+        <v>window_list_pointer_initial_address_ccd2</v>
+      </c>
+      <c r="C41" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B41,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>32</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B41,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K41" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WLIST_P_IADDR_CCD2_MSK</v>
+      </c>
+      <c r="L41" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N41" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WLIST_P_IADDR_CCD2_MSK (0xFFFFFFFF &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E23</f>
+        <v>window_width_ccd2</v>
+      </c>
+      <c r="C42" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B42,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B42,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WINDOW_WIDTH_CCD2_MSK</v>
+      </c>
+      <c r="L42" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N42" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WINDOW_WIDTH_CCD2_MSK  (0b111111 &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E24</f>
+        <v>window_height_ccd2</v>
+      </c>
+      <c r="C43" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B43,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B43,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>6</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WINDOW_HEIGHT_CCD2_MSK</v>
+      </c>
+      <c r="L43" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N43" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WINDOW_HEIGHT_CCD2_MSK (0b111111 &lt;&lt; 6)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E26</f>
+        <v>window_list_length_ccd2</v>
+      </c>
+      <c r="C44" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B44,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B44,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>16</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WLIST_LENGTH_CCD2_MSK</v>
+      </c>
+      <c r="L44" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N44" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WLIST_LENGTH_CCD2_MSK  (0xFFFF &lt;&lt; 16)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="49"/>
+      <c r="N45" s="50"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="49"/>
+      <c r="B46" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E27</f>
+        <v>window_list_pointer_initial_address_ccd3</v>
+      </c>
+      <c r="C46" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B46,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>32</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B46,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K46" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WLIST_P_IADDR_CCD3_MSK</v>
+      </c>
+      <c r="L46" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N46" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WLIST_P_IADDR_CCD3_MSK (0xFFFFFFFF &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E28</f>
+        <v>window_width_ccd3</v>
+      </c>
+      <c r="C47" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B47,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B47,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WINDOW_WIDTH_CCD3_MSK</v>
+      </c>
+      <c r="L47" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N47" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WINDOW_WIDTH_CCD3_MSK  (0b111111 &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E29</f>
+        <v>window_height_ccd3</v>
+      </c>
+      <c r="C48" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B48,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B48,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>6</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K48" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WINDOW_HEIGHT_CCD3_MSK</v>
+      </c>
+      <c r="L48" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N48" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WINDOW_HEIGHT_CCD3_MSK (0b111111 &lt;&lt; 6)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="49"/>
+      <c r="B49" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E31</f>
+        <v>window_list_length_ccd3</v>
+      </c>
+      <c r="C49" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B49,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B49,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>16</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="I49" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K49" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WLIST_LENGTH_CCD3_MSK</v>
+      </c>
+      <c r="L49" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N49" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WLIST_LENGTH_CCD3_MSK  (0xFFFF &lt;&lt; 16)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="49"/>
+      <c r="B51" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E32</f>
+        <v>window_list_pointer_initial_address_ccd4</v>
+      </c>
+      <c r="C51" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B51,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>32</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B51,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K51" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WLIST_P_IADDR_CCD4_MSK</v>
+      </c>
+      <c r="L51" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N51" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WLIST_P_IADDR_CCD4_MSK (0xFFFFFFFF &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E33</f>
+        <v>window_width_ccd4</v>
+      </c>
+      <c r="C52" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B52,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B52,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K52" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WINDOW_WIDTH_CCD4_MSK</v>
+      </c>
+      <c r="L52" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N52" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WINDOW_WIDTH_CCD4_MSK  (0b111111 &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="49"/>
+      <c r="B53" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E34</f>
+        <v>window_height_ccd4</v>
+      </c>
+      <c r="C53" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B53,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B53,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>6</v>
+      </c>
+      <c r="G53" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K53" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WINDOW_HEIGHT_CCD4_MSK</v>
+      </c>
+      <c r="L53" s="49">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N53" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WINDOW_HEIGHT_CCD4_MSK (0b111111 &lt;&lt; 6)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="49"/>
+      <c r="B54" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E36</f>
+        <v>window_list_length_ccd4</v>
+      </c>
+      <c r="C54" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B54,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B54,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>16</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_WLIST_LENGTH_CCD4_MSK</v>
+      </c>
+      <c r="L54" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N54" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_WLIST_LENGTH_CCD4_MSK  (0xFFFF &lt;&lt; 16)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="49"/>
+      <c r="N55" s="50"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="49"/>
+      <c r="B56" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E38</f>
+        <v>mode_selection_control</v>
+      </c>
+      <c r="C56" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B56,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B56,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>4</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K56" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_MODE_SEL_CTRL_MSK</v>
+      </c>
+      <c r="L56" s="49">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="N56" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_MODE_SEL_CTRL_MSK      (0xF &lt;&lt; 4)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="49"/>
+      <c r="N57" s="50"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="49"/>
+      <c r="B58" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E40</f>
+        <v>sync_configuration</v>
+      </c>
+      <c r="C58" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B58,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B58,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K58" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_SYNC_CFG_MSK</v>
+      </c>
+      <c r="L58" s="49">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="N58" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_SYNC_CFG_MSK           (0b11 &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E41</f>
+        <v>self_trigger_control</v>
+      </c>
+      <c r="C59" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B59,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="49">
+        <v>1</v>
+      </c>
+      <c r="E59" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B59,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>2</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="I59" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K59" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_SELF_TRIGGER_CTRL_MSK</v>
+      </c>
+      <c r="L59" s="49">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N59" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_SELF_TRIGGER_CTRL_MSK  (1 &lt;&lt; 2)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="49"/>
+      <c r="N60" s="50"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="49"/>
+      <c r="B61" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E45</f>
+        <v>frame_number</v>
+      </c>
+      <c r="C61" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B61,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B61,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K61" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_FRAME_NUMBER_MSK</v>
+      </c>
+      <c r="L61" s="49">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="N61" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_FRAME_NUMBER_MSK       (0b11 &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="49"/>
+      <c r="N62" s="50"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="49"/>
+      <c r="B63" s="49" t="str">
+        <f>'AVS RMAP Config Registers TABLE'!E47</f>
+        <v>current_mode</v>
+      </c>
+      <c r="C63" s="49">
+        <f>_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$K$2:$K$66,MATCH(B63,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="49" t="str">
+        <f>TEXT(RIGHT(_xlfn.IFNA(INDEX('AVS RMAP Config Registers TABLE'!$J$2:$J$66,MATCH(B63,'AVS RMAP Config Registers TABLE'!$E$2:$E$66,0)),""),2),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I63" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K63" s="49" t="str">
+        <f t="shared" si="5"/>
+        <v>COMM_RMAP_CURRENT_MODE_MSK</v>
+      </c>
+      <c r="L63" s="49">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="N63" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>#define COMM_RMAP_CURRENT_MODE_MSK       (0xF &lt;&lt; 0)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="49"/>
+      <c r="N64" s="50"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="49"/>
+      <c r="N65" s="50"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="49"/>
+      <c r="N66" s="50"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="49"/>
+      <c r="N67" s="50"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="49"/>
+      <c r="N68" s="50"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="49"/>
+      <c r="N69" s="50"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="49"/>
+      <c r="N70" s="50"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="49"/>
+      <c r="N71" s="50"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="49"/>
+      <c r="N72" s="50"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="49"/>
+      <c r="N73" s="50"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="49"/>
+      <c r="N74" s="50"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="49"/>
+      <c r="N75" s="50"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="49"/>
+      <c r="N76" s="50"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="49"/>
+      <c r="N77" s="50"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="49"/>
+      <c r="N78" s="50"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="49"/>
+      <c r="N79" s="50"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="49"/>
+      <c r="N80" s="50"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="49"/>
+      <c r="N81" s="50"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="49"/>
+      <c r="N82" s="50"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="49"/>
+      <c r="N83" s="50"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="49"/>
+      <c r="N84" s="50"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="49"/>
+      <c r="N85" s="50"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="49"/>
+      <c r="N86" s="50"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N87" s="50"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N88" s="50"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N89" s="50"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N90" s="50"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C91" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B93,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N91" s="50"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C92" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B94,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N92" s="50"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C93" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B95,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N93" s="50"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C94" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B96,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N94" s="50"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C95" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B97,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N95" s="50"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C96" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B98,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N96" s="50"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C97" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B99,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N97" s="50"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C98" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B100,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N98" s="50"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C99" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B101,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N99" s="50"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C100" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B102,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N100" s="50"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C101" s="49" t="str">
+        <f>_xlfn.IFNA(INDEX('[1]AVS COMM Registers TABLE'!$K$2:$K$83,MATCH('[1]NIOS defines'!B103,'[1]AVS COMM Registers TABLE'!$E$2:$E$83,0)),"")</f>
+        <v/>
+      </c>
+      <c r="N101" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M105"/>
   <sheetViews>
@@ -13011,11 +15969,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16815,7 +19773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB95"/>
   <sheetViews>
